--- a/report/lab03/TO wykresy.xlsx
+++ b/report/lab03/TO wykresy.xlsx
@@ -6871,157 +6871,157 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="51"/>
                 <c:pt idx="0">
-                  <c:v>1323.0</c:v>
+                  <c:v>198.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>463.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>298.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>611.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>274.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>252.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>161.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>123.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>53.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>376.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>327.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>457.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>776.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>953.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1256.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>1178.0</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>953.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>776.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>611.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="17">
+                  <c:v>1429.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1187.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1286.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>839.0</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="21">
+                  <c:v>984.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>742.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
                   <c:v>938.0</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>984.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1187.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1286.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="24">
+                  <c:v>1115.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1393.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
                   <c:v>1380.0</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>3640.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1787.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="27">
+                  <c:v>1795.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
                   <c:v>1917.0</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="29">
+                  <c:v>2097.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2482.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
                   <c:v>2421.0</c:v>
                 </c:pt>
-                <c:pt idx="15">
-                  <c:v>2574.0</c:v>
-                </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="32">
+                  <c:v>2599.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
                   <c:v>2586.0</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="34">
                   <c:v>2716.0</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="35">
                   <c:v>2721.0</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="36">
+                  <c:v>2576.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
                   <c:v>2728.0</c:v>
                 </c:pt>
-                <c:pt idx="20">
-                  <c:v>2576.0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2678.0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2945.0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2961.0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2628.0</c:v>
-                </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="38">
                   <c:v>2597.0</c:v>
                 </c:pt>
-                <c:pt idx="26">
-                  <c:v>2573.0</c:v>
-                </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="39">
                   <c:v>2290.0</c:v>
                 </c:pt>
-                <c:pt idx="28">
-                  <c:v>2178.0</c:v>
-                </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="40">
                   <c:v>2139.0</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="41">
                   <c:v>1724.0</c:v>
                 </c:pt>
-                <c:pt idx="31">
-                  <c:v>1807.0</c:v>
-                </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="42">
                   <c:v>1621.0</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="43">
                   <c:v>1625.0</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="44">
                   <c:v>1424.0</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="45">
+                  <c:v>1247.0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1251.0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>929.0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>890.0</c:v>
+                </c:pt>
+                <c:pt idx="49">
                   <c:v>1234.0</c:v>
                 </c:pt>
-                <c:pt idx="36">
-                  <c:v>1247.0</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>1251.0</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>928.0</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>872.0</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>738.0</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>742.0</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>1115.0</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>378.0</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>252.0</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>22.0</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>53.0</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>161.0</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>376.0</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>123.0</c:v>
-                </c:pt>
                 <c:pt idx="50">
-                  <c:v>1323.0</c:v>
+                  <c:v>198.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7033,157 +7033,157 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="51"/>
                 <c:pt idx="0">
-                  <c:v>280.0</c:v>
+                  <c:v>1810.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>1670.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1513.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1384.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1420.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1240.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>906.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>862.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>857.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>825.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>674.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>265.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>334.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>392.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>268.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>61.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>100.0</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>268.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>392.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>673.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="17">
+                  <c:v>134.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>706.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>525.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>620.0</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="21">
+                  <c:v>965.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1025.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
                   <c:v>955.0</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>965.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>706.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>525.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="24">
+                  <c:v>1052.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1368.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
                   <c:v>939.0</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>43.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1009.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="27">
+                  <c:v>962.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
                   <c:v>687.0</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="29">
+                  <c:v>981.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1183.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
                   <c:v>1007.0</c:v>
                 </c:pt>
-                <c:pt idx="15">
-                  <c:v>946.0</c:v>
-                </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="32">
+                  <c:v>901.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
                   <c:v>1286.0</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="34">
                   <c:v>1432.0</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="35">
                   <c:v>1482.0</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="36">
+                  <c:v>1676.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
                   <c:v>1698.0</c:v>
                 </c:pt>
-                <c:pt idx="20">
-                  <c:v>1676.0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1825.0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1622.0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1605.0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1479.0</c:v>
-                </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="38">
                   <c:v>1830.0</c:v>
                 </c:pt>
-                <c:pt idx="26">
-                  <c:v>1969.0</c:v>
-                </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="39">
                   <c:v>1810.0</c:v>
                 </c:pt>
-                <c:pt idx="28">
-                  <c:v>1619.0</c:v>
-                </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="40">
                   <c:v>1806.0</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="41">
                   <c:v>1642.0</c:v>
                 </c:pt>
-                <c:pt idx="31">
-                  <c:v>1711.0</c:v>
-                </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="42">
                   <c:v>1830.0</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="43">
                   <c:v>1651.0</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="44">
                   <c:v>1728.0</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="45">
+                  <c:v>1945.0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1832.0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1766.0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1846.0</c:v>
+                </c:pt>
+                <c:pt idx="49">
                   <c:v>1946.0</c:v>
                 </c:pt>
-                <c:pt idx="36">
-                  <c:v>1945.0</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>1832.0</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>1700.0</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>1559.0</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>1325.0</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>1025.0</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>1052.0</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>1048.0</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>1240.0</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>987.0</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>857.0</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>906.0</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>825.0</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>862.0</c:v>
-                </c:pt>
                 <c:pt idx="50">
-                  <c:v>280.0</c:v>
+                  <c:v>1810.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8292,6 +8292,159 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>1917.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2961.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1115.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1323.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2678.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3373.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3683.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3950.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1795.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2178.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2597.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2848.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3640.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2588.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>161.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>738.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>463.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>53.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>123.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>298.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>178.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1724.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>984.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>252.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>274.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1187.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>378.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1393.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3888.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>198.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3085.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2139.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1247.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2716.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3520.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3911.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3384.0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3510.0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3113.0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2573.0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3416.0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2586.0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>3022.0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>3875.0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2721.0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>872.0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1621.0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2573.0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1917.0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -8301,6 +8454,159 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>687.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1605.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1052.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>280.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1825.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1646.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1533.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1558.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>962.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1619.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1830.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>96.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>302.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>906.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1325.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1670.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>674.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>857.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>862.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1513.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>987.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1642.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>965.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1240.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1420.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>706.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1048.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1368.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>666.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1810.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1528.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1806.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1945.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1432.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1079.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1673.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1498.0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1671.0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>885.0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>599.0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>143.0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1286.0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>474.0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>598.0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1482.0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1559.0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1830.0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1969.0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>687.0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -9465,8 +9771,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U95" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="AA105" sqref="AA105"/>
+    <sheetView tabSelected="1" topLeftCell="B68" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="R82" sqref="R82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -10728,10 +11034,19 @@
         <v>41</v>
       </c>
       <c r="X105">
-        <v>1323</v>
+        <v>198</v>
       </c>
       <c r="Y105">
-        <v>280</v>
+        <v>1810</v>
+      </c>
+      <c r="Z105">
+        <v>66</v>
+      </c>
+      <c r="AA105">
+        <v>1917</v>
+      </c>
+      <c r="AB105">
+        <v>687</v>
       </c>
     </row>
     <row r="106" spans="1:28">
@@ -10785,10 +11100,19 @@
         <v>79</v>
       </c>
       <c r="X106">
-        <v>1178</v>
+        <v>463</v>
       </c>
       <c r="Y106">
-        <v>100</v>
+        <v>1670</v>
+      </c>
+      <c r="Z106">
+        <v>82</v>
+      </c>
+      <c r="AA106">
+        <v>2961</v>
+      </c>
+      <c r="AB106">
+        <v>1605</v>
       </c>
     </row>
     <row r="107" spans="1:28">
@@ -10842,10 +11166,19 @@
         <v>55</v>
       </c>
       <c r="X107">
-        <v>953</v>
+        <v>298</v>
       </c>
       <c r="Y107">
-        <v>268</v>
+        <v>1513</v>
+      </c>
+      <c r="Z107">
+        <v>62</v>
+      </c>
+      <c r="AA107">
+        <v>1115</v>
+      </c>
+      <c r="AB107">
+        <v>1052</v>
       </c>
     </row>
     <row r="108" spans="1:28">
@@ -10901,10 +11234,19 @@
         <v>96</v>
       </c>
       <c r="X108">
-        <v>776</v>
+        <v>611</v>
       </c>
       <c r="Y108">
-        <v>392</v>
+        <v>1384</v>
+      </c>
+      <c r="Z108">
+        <v>41</v>
+      </c>
+      <c r="AA108">
+        <v>1323</v>
+      </c>
+      <c r="AB108">
+        <v>280</v>
       </c>
     </row>
     <row r="109" spans="1:28">
@@ -10960,10 +11302,19 @@
         <v>18</v>
       </c>
       <c r="X109">
-        <v>611</v>
+        <v>274</v>
       </c>
       <c r="Y109">
-        <v>673</v>
+        <v>1420</v>
+      </c>
+      <c r="Z109">
+        <v>26</v>
+      </c>
+      <c r="AA109">
+        <v>2678</v>
+      </c>
+      <c r="AB109">
+        <v>1825</v>
       </c>
     </row>
     <row r="110" spans="1:28">
@@ -11019,10 +11370,19 @@
         <v>74</v>
       </c>
       <c r="X110">
-        <v>839</v>
+        <v>252</v>
       </c>
       <c r="Y110">
-        <v>620</v>
+        <v>1240</v>
+      </c>
+      <c r="Z110">
+        <v>45</v>
+      </c>
+      <c r="AA110">
+        <v>3373</v>
+      </c>
+      <c r="AB110">
+        <v>1646</v>
       </c>
     </row>
     <row r="111" spans="1:28">
@@ -11078,10 +11438,19 @@
         <v>48</v>
       </c>
       <c r="X111">
-        <v>938</v>
+        <v>161</v>
       </c>
       <c r="Y111">
-        <v>955</v>
+        <v>906</v>
+      </c>
+      <c r="Z111">
+        <v>13</v>
+      </c>
+      <c r="AA111">
+        <v>3683</v>
+      </c>
+      <c r="AB111">
+        <v>1533</v>
       </c>
     </row>
     <row r="112" spans="1:28">
@@ -11137,13 +11506,22 @@
         <v>5</v>
       </c>
       <c r="X112">
-        <v>984</v>
+        <v>123</v>
       </c>
       <c r="Y112">
-        <v>965</v>
-      </c>
-    </row>
-    <row r="113" spans="1:25">
+        <v>862</v>
+      </c>
+      <c r="Z112">
+        <v>99</v>
+      </c>
+      <c r="AA112">
+        <v>3950</v>
+      </c>
+      <c r="AB112">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="113" spans="1:28">
       <c r="A113">
         <v>9</v>
       </c>
@@ -11196,13 +11574,22 @@
         <v>91</v>
       </c>
       <c r="X113">
-        <v>1187</v>
+        <v>53</v>
       </c>
       <c r="Y113">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="114" spans="1:25">
+        <v>857</v>
+      </c>
+      <c r="Z113">
+        <v>27</v>
+      </c>
+      <c r="AA113">
+        <v>1795</v>
+      </c>
+      <c r="AB113">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="114" spans="1:28">
       <c r="A114">
         <v>10</v>
       </c>
@@ -11255,13 +11642,22 @@
         <v>7</v>
       </c>
       <c r="X114">
-        <v>1286</v>
+        <v>376</v>
       </c>
       <c r="Y114">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="115" spans="1:25">
+        <v>825</v>
+      </c>
+      <c r="Z114">
+        <v>76</v>
+      </c>
+      <c r="AA114">
+        <v>2178</v>
+      </c>
+      <c r="AB114">
+        <v>1619</v>
+      </c>
+    </row>
+    <row r="115" spans="1:28">
       <c r="A115">
         <v>11</v>
       </c>
@@ -11314,13 +11710,22 @@
         <v>0</v>
       </c>
       <c r="X115">
-        <v>1380</v>
+        <v>19</v>
       </c>
       <c r="Y115">
-        <v>939</v>
-      </c>
-    </row>
-    <row r="116" spans="1:25">
+        <v>674</v>
+      </c>
+      <c r="Z115">
+        <v>85</v>
+      </c>
+      <c r="AA115">
+        <v>2597</v>
+      </c>
+      <c r="AB115">
+        <v>1830</v>
+      </c>
+    </row>
+    <row r="116" spans="1:28">
       <c r="A116">
         <v>12</v>
       </c>
@@ -11373,13 +11778,22 @@
         <v>94</v>
       </c>
       <c r="X116">
-        <v>3640</v>
+        <v>327</v>
       </c>
       <c r="Y116">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="117" spans="1:25">
+        <v>265</v>
+      </c>
+      <c r="Z116">
+        <v>1</v>
+      </c>
+      <c r="AA116">
+        <v>2848</v>
+      </c>
+      <c r="AB116">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="117" spans="1:28">
       <c r="A117">
         <v>13</v>
       </c>
@@ -11432,13 +11846,22 @@
         <v>92</v>
       </c>
       <c r="X117">
-        <v>1787</v>
+        <v>457</v>
       </c>
       <c r="Y117">
-        <v>1009</v>
-      </c>
-    </row>
-    <row r="118" spans="1:25">
+        <v>334</v>
+      </c>
+      <c r="Z117">
+        <v>94</v>
+      </c>
+      <c r="AA117">
+        <v>3640</v>
+      </c>
+      <c r="AB117">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="118" spans="1:28">
       <c r="A118">
         <v>14</v>
       </c>
@@ -11491,13 +11914,22 @@
         <v>66</v>
       </c>
       <c r="X118">
-        <v>1917</v>
+        <v>776</v>
       </c>
       <c r="Y118">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="119" spans="1:25">
+        <v>392</v>
+      </c>
+      <c r="Z118">
+        <v>63</v>
+      </c>
+      <c r="AA118">
+        <v>2588</v>
+      </c>
+      <c r="AB118">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="119" spans="1:28">
       <c r="A119">
         <v>15</v>
       </c>
@@ -11550,13 +11982,22 @@
         <v>60</v>
       </c>
       <c r="X119">
-        <v>2421</v>
+        <v>953</v>
       </c>
       <c r="Y119">
-        <v>1007</v>
-      </c>
-    </row>
-    <row r="120" spans="1:25">
+        <v>268</v>
+      </c>
+      <c r="Z119">
+        <v>87</v>
+      </c>
+      <c r="AA119">
+        <v>161</v>
+      </c>
+      <c r="AB119">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="120" spans="1:28">
       <c r="A120">
         <v>16</v>
       </c>
@@ -11609,13 +12050,22 @@
         <v>24</v>
       </c>
       <c r="X120">
-        <v>2574</v>
+        <v>1256</v>
       </c>
       <c r="Y120">
-        <v>946</v>
-      </c>
-    </row>
-    <row r="121" spans="1:25">
+        <v>61</v>
+      </c>
+      <c r="Z120">
+        <v>9</v>
+      </c>
+      <c r="AA120">
+        <v>738</v>
+      </c>
+      <c r="AB120">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="121" spans="1:28">
       <c r="A121">
         <v>17</v>
       </c>
@@ -11668,13 +12118,22 @@
         <v>86</v>
       </c>
       <c r="X121">
-        <v>2586</v>
+        <v>1178</v>
       </c>
       <c r="Y121">
-        <v>1286</v>
-      </c>
-    </row>
-    <row r="122" spans="1:25">
+        <v>100</v>
+      </c>
+      <c r="Z121">
+        <v>35</v>
+      </c>
+      <c r="AA121">
+        <v>463</v>
+      </c>
+      <c r="AB121">
+        <v>1670</v>
+      </c>
+    </row>
+    <row r="122" spans="1:28">
       <c r="A122">
         <v>18</v>
       </c>
@@ -11727,13 +12186,22 @@
         <v>8</v>
       </c>
       <c r="X122">
-        <v>2716</v>
+        <v>1429</v>
       </c>
       <c r="Y122">
-        <v>1432</v>
-      </c>
-    </row>
-    <row r="123" spans="1:25">
+        <v>134</v>
+      </c>
+      <c r="Z122">
+        <v>69</v>
+      </c>
+      <c r="AA122">
+        <v>19</v>
+      </c>
+      <c r="AB122">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="123" spans="1:28">
       <c r="A123">
         <v>19</v>
       </c>
@@ -11786,13 +12254,22 @@
         <v>6</v>
       </c>
       <c r="X123">
-        <v>2721</v>
+        <v>1187</v>
       </c>
       <c r="Y123">
-        <v>1482</v>
-      </c>
-    </row>
-    <row r="124" spans="1:25">
+        <v>706</v>
+      </c>
+      <c r="Z123">
+        <v>21</v>
+      </c>
+      <c r="AA123">
+        <v>53</v>
+      </c>
+      <c r="AB123">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="124" spans="1:28">
       <c r="A124">
         <v>20</v>
       </c>
@@ -11845,13 +12322,22 @@
         <v>11</v>
       </c>
       <c r="X124">
-        <v>2728</v>
+        <v>1286</v>
       </c>
       <c r="Y124">
-        <v>1698</v>
-      </c>
-    </row>
-    <row r="125" spans="1:25">
+        <v>525</v>
+      </c>
+      <c r="Z124">
+        <v>15</v>
+      </c>
+      <c r="AA124">
+        <v>123</v>
+      </c>
+      <c r="AB124">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="125" spans="1:28">
       <c r="A125">
         <v>21</v>
       </c>
@@ -11904,13 +12390,22 @@
         <v>19</v>
       </c>
       <c r="X125">
-        <v>2576</v>
+        <v>839</v>
       </c>
       <c r="Y125">
-        <v>1676</v>
-      </c>
-    </row>
-    <row r="126" spans="1:25">
+        <v>620</v>
+      </c>
+      <c r="Z125">
+        <v>37</v>
+      </c>
+      <c r="AA125">
+        <v>298</v>
+      </c>
+      <c r="AB125">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="126" spans="1:28">
       <c r="A126">
         <v>22</v>
       </c>
@@ -11963,13 +12458,22 @@
         <v>26</v>
       </c>
       <c r="X126">
-        <v>2678</v>
+        <v>984</v>
       </c>
       <c r="Y126">
-        <v>1825</v>
-      </c>
-    </row>
-    <row r="127" spans="1:25">
+        <v>965</v>
+      </c>
+      <c r="Z126">
+        <v>93</v>
+      </c>
+      <c r="AA126">
+        <v>22</v>
+      </c>
+      <c r="AB126">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="127" spans="1:28">
       <c r="A127">
         <v>23</v>
       </c>
@@ -12022,13 +12526,22 @@
         <v>54</v>
       </c>
       <c r="X127">
-        <v>2945</v>
+        <v>742</v>
       </c>
       <c r="Y127">
-        <v>1622</v>
-      </c>
-    </row>
-    <row r="128" spans="1:25">
+        <v>1025</v>
+      </c>
+      <c r="Z127">
+        <v>25</v>
+      </c>
+      <c r="AA127">
+        <v>178</v>
+      </c>
+      <c r="AB127">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="128" spans="1:28">
       <c r="A128">
         <v>24</v>
       </c>
@@ -12081,13 +12594,22 @@
         <v>82</v>
       </c>
       <c r="X128">
-        <v>2961</v>
+        <v>938</v>
       </c>
       <c r="Y128">
-        <v>1605</v>
-      </c>
-    </row>
-    <row r="129" spans="1:25">
+        <v>955</v>
+      </c>
+      <c r="Z128">
+        <v>97</v>
+      </c>
+      <c r="AA128">
+        <v>1724</v>
+      </c>
+      <c r="AB128">
+        <v>1642</v>
+      </c>
+    </row>
+    <row r="129" spans="1:28">
       <c r="A129">
         <v>25</v>
       </c>
@@ -12140,13 +12662,22 @@
         <v>56</v>
       </c>
       <c r="X129">
-        <v>2628</v>
+        <v>1115</v>
       </c>
       <c r="Y129">
-        <v>1479</v>
-      </c>
-    </row>
-    <row r="130" spans="1:25">
+        <v>1052</v>
+      </c>
+      <c r="Z129">
+        <v>5</v>
+      </c>
+      <c r="AA129">
+        <v>984</v>
+      </c>
+      <c r="AB129">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="130" spans="1:28">
       <c r="A130">
         <v>26</v>
       </c>
@@ -12199,13 +12730,22 @@
         <v>85</v>
       </c>
       <c r="X130">
-        <v>2597</v>
+        <v>1393</v>
       </c>
       <c r="Y130">
-        <v>1830</v>
-      </c>
-    </row>
-    <row r="131" spans="1:25">
+        <v>1368</v>
+      </c>
+      <c r="Z130">
+        <v>17</v>
+      </c>
+      <c r="AA130">
+        <v>252</v>
+      </c>
+      <c r="AB130">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="131" spans="1:28">
       <c r="A131">
         <v>27</v>
       </c>
@@ -12258,13 +12798,22 @@
         <v>34</v>
       </c>
       <c r="X131">
-        <v>2573</v>
+        <v>1380</v>
       </c>
       <c r="Y131">
-        <v>1969</v>
-      </c>
-    </row>
-    <row r="132" spans="1:25">
+        <v>939</v>
+      </c>
+      <c r="Z131">
+        <v>23</v>
+      </c>
+      <c r="AA131">
+        <v>274</v>
+      </c>
+      <c r="AB131">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="132" spans="1:28">
       <c r="A132">
         <v>28</v>
       </c>
@@ -12317,13 +12866,22 @@
         <v>61</v>
       </c>
       <c r="X132">
-        <v>2290</v>
+        <v>1795</v>
       </c>
       <c r="Y132">
-        <v>1810</v>
-      </c>
-    </row>
-    <row r="133" spans="1:25">
+        <v>962</v>
+      </c>
+      <c r="Z132">
+        <v>91</v>
+      </c>
+      <c r="AA132">
+        <v>1187</v>
+      </c>
+      <c r="AB132">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="133" spans="1:28">
       <c r="A133">
         <v>29</v>
       </c>
@@ -12376,13 +12934,22 @@
         <v>76</v>
       </c>
       <c r="X133">
-        <v>2178</v>
+        <v>1917</v>
       </c>
       <c r="Y133">
-        <v>1619</v>
-      </c>
-    </row>
-    <row r="134" spans="1:25">
+        <v>687</v>
+      </c>
+      <c r="Z133">
+        <v>78</v>
+      </c>
+      <c r="AA133">
+        <v>378</v>
+      </c>
+      <c r="AB133">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="134" spans="1:28">
       <c r="A134">
         <v>30</v>
       </c>
@@ -12435,13 +13002,22 @@
         <v>59</v>
       </c>
       <c r="X134">
-        <v>2139</v>
+        <v>2097</v>
       </c>
       <c r="Y134">
-        <v>1806</v>
-      </c>
-    </row>
-    <row r="135" spans="1:25">
+        <v>981</v>
+      </c>
+      <c r="Z134">
+        <v>46</v>
+      </c>
+      <c r="AA134">
+        <v>1393</v>
+      </c>
+      <c r="AB134">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="135" spans="1:28">
       <c r="A135">
         <v>31</v>
       </c>
@@ -12494,13 +13070,22 @@
         <v>97</v>
       </c>
       <c r="X135">
-        <v>1724</v>
+        <v>2482</v>
       </c>
       <c r="Y135">
-        <v>1642</v>
-      </c>
-    </row>
-    <row r="136" spans="1:25">
+        <v>1183</v>
+      </c>
+      <c r="Z135">
+        <v>4</v>
+      </c>
+      <c r="AA135">
+        <v>3888</v>
+      </c>
+      <c r="AB135">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="136" spans="1:28">
       <c r="A136">
         <v>32</v>
       </c>
@@ -12553,13 +13138,22 @@
         <v>22</v>
       </c>
       <c r="X136">
-        <v>1807</v>
+        <v>2421</v>
       </c>
       <c r="Y136">
-        <v>1711</v>
-      </c>
-    </row>
-    <row r="137" spans="1:25">
+        <v>1007</v>
+      </c>
+      <c r="Z136">
+        <v>98</v>
+      </c>
+      <c r="AA136">
+        <v>198</v>
+      </c>
+      <c r="AB136">
+        <v>1810</v>
+      </c>
+    </row>
+    <row r="137" spans="1:28">
       <c r="A137">
         <v>33</v>
       </c>
@@ -12612,13 +13206,22 @@
         <v>44</v>
       </c>
       <c r="X137">
-        <v>1621</v>
+        <v>2599</v>
       </c>
       <c r="Y137">
-        <v>1830</v>
-      </c>
-    </row>
-    <row r="138" spans="1:25">
+        <v>901</v>
+      </c>
+      <c r="Z137">
+        <v>33</v>
+      </c>
+      <c r="AA137">
+        <v>3085</v>
+      </c>
+      <c r="AB137">
+        <v>1528</v>
+      </c>
+    </row>
+    <row r="138" spans="1:28">
       <c r="A138">
         <v>34</v>
       </c>
@@ -12671,13 +13274,22 @@
         <v>90</v>
       </c>
       <c r="X138">
-        <v>1625</v>
+        <v>2586</v>
       </c>
       <c r="Y138">
-        <v>1651</v>
-      </c>
-    </row>
-    <row r="139" spans="1:25">
+        <v>1286</v>
+      </c>
+      <c r="Z138">
+        <v>59</v>
+      </c>
+      <c r="AA138">
+        <v>2139</v>
+      </c>
+      <c r="AB138">
+        <v>1806</v>
+      </c>
+    </row>
+    <row r="139" spans="1:28">
       <c r="A139">
         <v>35</v>
       </c>
@@ -12730,13 +13342,22 @@
         <v>31</v>
       </c>
       <c r="X139">
-        <v>1424</v>
+        <v>2716</v>
       </c>
       <c r="Y139">
-        <v>1728</v>
-      </c>
-    </row>
-    <row r="140" spans="1:25">
+        <v>1432</v>
+      </c>
+      <c r="Z139">
+        <v>14</v>
+      </c>
+      <c r="AA139">
+        <v>1247</v>
+      </c>
+      <c r="AB139">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="140" spans="1:28">
       <c r="A140">
         <v>36</v>
       </c>
@@ -12789,13 +13410,22 @@
         <v>16</v>
       </c>
       <c r="X140">
-        <v>1234</v>
+        <v>2721</v>
       </c>
       <c r="Y140">
-        <v>1946</v>
-      </c>
-    </row>
-    <row r="141" spans="1:25">
+        <v>1482</v>
+      </c>
+      <c r="Z140">
+        <v>8</v>
+      </c>
+      <c r="AA140">
+        <v>2716</v>
+      </c>
+      <c r="AB140">
+        <v>1432</v>
+      </c>
+    </row>
+    <row r="141" spans="1:28">
       <c r="A141">
         <v>37</v>
       </c>
@@ -12848,13 +13478,22 @@
         <v>14</v>
       </c>
       <c r="X141">
-        <v>1247</v>
+        <v>2576</v>
       </c>
       <c r="Y141">
-        <v>1945</v>
-      </c>
-    </row>
-    <row r="142" spans="1:25">
+        <v>1676</v>
+      </c>
+      <c r="Z141">
+        <v>29</v>
+      </c>
+      <c r="AA141">
+        <v>3520</v>
+      </c>
+      <c r="AB141">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="142" spans="1:28">
       <c r="A142">
         <v>38</v>
       </c>
@@ -12907,13 +13546,22 @@
         <v>10</v>
       </c>
       <c r="X142">
-        <v>1251</v>
+        <v>2728</v>
       </c>
       <c r="Y142">
-        <v>1832</v>
-      </c>
-    </row>
-    <row r="143" spans="1:25">
+        <v>1698</v>
+      </c>
+      <c r="Z142">
+        <v>70</v>
+      </c>
+      <c r="AA142">
+        <v>3911</v>
+      </c>
+      <c r="AB142">
+        <v>1673</v>
+      </c>
+    </row>
+    <row r="143" spans="1:28">
       <c r="A143">
         <v>39</v>
       </c>
@@ -12966,13 +13614,22 @@
         <v>20</v>
       </c>
       <c r="X143">
-        <v>928</v>
+        <v>2597</v>
       </c>
       <c r="Y143">
-        <v>1700</v>
-      </c>
-    </row>
-    <row r="144" spans="1:25">
+        <v>1830</v>
+      </c>
+      <c r="Z143">
+        <v>28</v>
+      </c>
+      <c r="AA143">
+        <v>3384</v>
+      </c>
+      <c r="AB143">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="144" spans="1:28">
       <c r="A144">
         <v>40</v>
       </c>
@@ -13025,13 +13682,22 @@
         <v>71</v>
       </c>
       <c r="X144">
-        <v>872</v>
+        <v>2290</v>
       </c>
       <c r="Y144">
-        <v>1559</v>
-      </c>
-    </row>
-    <row r="145" spans="1:25">
+        <v>1810</v>
+      </c>
+      <c r="Z144">
+        <v>2</v>
+      </c>
+      <c r="AA144">
+        <v>3510</v>
+      </c>
+      <c r="AB144">
+        <v>1671</v>
+      </c>
+    </row>
+    <row r="145" spans="1:28">
       <c r="A145">
         <v>41</v>
       </c>
@@ -13084,13 +13750,22 @@
         <v>9</v>
       </c>
       <c r="X145">
-        <v>738</v>
+        <v>2139</v>
       </c>
       <c r="Y145">
-        <v>1325</v>
-      </c>
-    </row>
-    <row r="146" spans="1:25">
+        <v>1806</v>
+      </c>
+      <c r="Z145">
+        <v>84</v>
+      </c>
+      <c r="AA145">
+        <v>3113</v>
+      </c>
+      <c r="AB145">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="146" spans="1:28">
       <c r="A146">
         <v>42</v>
       </c>
@@ -13143,13 +13818,22 @@
         <v>89</v>
       </c>
       <c r="X146">
-        <v>742</v>
+        <v>1724</v>
       </c>
       <c r="Y146">
-        <v>1025</v>
-      </c>
-    </row>
-    <row r="147" spans="1:25">
+        <v>1642</v>
+      </c>
+      <c r="Z146">
+        <v>68</v>
+      </c>
+      <c r="AA146">
+        <v>2573</v>
+      </c>
+      <c r="AB146">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="147" spans="1:28">
       <c r="A147">
         <v>43</v>
       </c>
@@ -13202,13 +13886,22 @@
         <v>62</v>
       </c>
       <c r="X147">
-        <v>1115</v>
+        <v>1621</v>
       </c>
       <c r="Y147">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="148" spans="1:25">
+        <v>1830</v>
+      </c>
+      <c r="Z147">
+        <v>81</v>
+      </c>
+      <c r="AA147">
+        <v>3416</v>
+      </c>
+      <c r="AB147">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="148" spans="1:28">
       <c r="A148">
         <v>44</v>
       </c>
@@ -13261,13 +13954,22 @@
         <v>78</v>
       </c>
       <c r="X148">
-        <v>378</v>
+        <v>1625</v>
       </c>
       <c r="Y148">
-        <v>1048</v>
-      </c>
-    </row>
-    <row r="149" spans="1:25">
+        <v>1651</v>
+      </c>
+      <c r="Z148">
+        <v>86</v>
+      </c>
+      <c r="AA148">
+        <v>2586</v>
+      </c>
+      <c r="AB148">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="149" spans="1:28">
       <c r="A149">
         <v>45</v>
       </c>
@@ -13320,13 +14022,22 @@
         <v>17</v>
       </c>
       <c r="X149">
-        <v>252</v>
+        <v>1424</v>
       </c>
       <c r="Y149">
-        <v>1240</v>
-      </c>
-    </row>
-    <row r="150" spans="1:25">
+        <v>1728</v>
+      </c>
+      <c r="Z149">
+        <v>49</v>
+      </c>
+      <c r="AA149">
+        <v>3022</v>
+      </c>
+      <c r="AB149">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="150" spans="1:28">
       <c r="A150">
         <v>46</v>
       </c>
@@ -13379,13 +14090,22 @@
         <v>93</v>
       </c>
       <c r="X150">
-        <v>22</v>
+        <v>1247</v>
       </c>
       <c r="Y150">
-        <v>987</v>
-      </c>
-    </row>
-    <row r="151" spans="1:25">
+        <v>1945</v>
+      </c>
+      <c r="Z150">
+        <v>36</v>
+      </c>
+      <c r="AA150">
+        <v>3875</v>
+      </c>
+      <c r="AB150">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="151" spans="1:28">
       <c r="A151">
         <v>47</v>
       </c>
@@ -13438,13 +14158,22 @@
         <v>21</v>
       </c>
       <c r="X151">
-        <v>53</v>
+        <v>1251</v>
       </c>
       <c r="Y151">
-        <v>857</v>
-      </c>
-    </row>
-    <row r="152" spans="1:25">
+        <v>1832</v>
+      </c>
+      <c r="Z151">
+        <v>6</v>
+      </c>
+      <c r="AA151">
+        <v>2721</v>
+      </c>
+      <c r="AB151">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="152" spans="1:28">
       <c r="A152">
         <v>48</v>
       </c>
@@ -13497,13 +14226,22 @@
         <v>87</v>
       </c>
       <c r="X152">
-        <v>161</v>
+        <v>929</v>
       </c>
       <c r="Y152">
-        <v>906</v>
-      </c>
-    </row>
-    <row r="153" spans="1:25">
+        <v>1766</v>
+      </c>
+      <c r="Z152">
+        <v>71</v>
+      </c>
+      <c r="AA152">
+        <v>872</v>
+      </c>
+      <c r="AB152">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="153" spans="1:28">
       <c r="A153">
         <v>49</v>
       </c>
@@ -13556,13 +14294,22 @@
         <v>52</v>
       </c>
       <c r="X153">
-        <v>376</v>
+        <v>890</v>
       </c>
       <c r="Y153">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="154" spans="1:25">
+        <v>1846</v>
+      </c>
+      <c r="Z153">
+        <v>44</v>
+      </c>
+      <c r="AA153">
+        <v>1621</v>
+      </c>
+      <c r="AB153">
+        <v>1830</v>
+      </c>
+    </row>
+    <row r="154" spans="1:28">
       <c r="A154">
         <v>50</v>
       </c>
@@ -13615,13 +14362,22 @@
         <v>15</v>
       </c>
       <c r="X154">
-        <v>123</v>
+        <v>1234</v>
       </c>
       <c r="Y154">
-        <v>862</v>
-      </c>
-    </row>
-    <row r="155" spans="1:25">
+        <v>1946</v>
+      </c>
+      <c r="Z154">
+        <v>34</v>
+      </c>
+      <c r="AA154">
+        <v>2573</v>
+      </c>
+      <c r="AB154">
+        <v>1969</v>
+      </c>
+    </row>
+    <row r="155" spans="1:28">
       <c r="A155">
         <v>51</v>
       </c>
@@ -13674,13 +14430,22 @@
         <v>41</v>
       </c>
       <c r="X155">
-        <v>1323</v>
+        <v>198</v>
       </c>
       <c r="Y155">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="156" spans="1:25">
+        <v>1810</v>
+      </c>
+      <c r="Z155">
+        <v>66</v>
+      </c>
+      <c r="AA155">
+        <v>1917</v>
+      </c>
+      <c r="AB155">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="156" spans="1:28">
       <c r="S156" t="s">
         <v>4</v>
       </c>

--- a/report/lab03/TO wykresy.xlsx
+++ b/report/lab03/TO wykresy.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="26423"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28720" windowHeight="17460"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28720" windowHeight="17540"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -163,8 +163,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="13">
+  <cellStyleXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -203,13 +205,14 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="13">
+  <cellStyles count="15">
     <cellStyle name="Hiperłącze" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hiperłącze" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hiperłącze" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hiperłącze" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Hiperłącze" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Hiperłącze" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperłącze" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Standardowy" xfId="0" builtinId="0"/>
     <cellStyle name="Użyte hiperłącze" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Użyte hiperłącze" xfId="4" builtinId="9" hidden="1"/>
@@ -217,6 +220,7 @@
     <cellStyle name="Użyte hiperłącze" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Użyte hiperłącze" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Użyte hiperłącze" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Użyte hiperłącze" xfId="14" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -265,7 +269,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1557,11 +1560,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2122591144"/>
-        <c:axId val="2122581960"/>
+        <c:axId val="-2134427128"/>
+        <c:axId val="-2134424344"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2122591144"/>
+        <c:axId val="-2134427128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4000.0"/>
@@ -1583,12 +1586,12 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2122581960"/>
+        <c:crossAx val="-2134424344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2122581960"/>
+        <c:axId val="-2134424344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2000.0"/>
@@ -1610,7 +1613,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2122591144"/>
+        <c:crossAx val="-2134427128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1668,7 +1671,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2960,11 +2962,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2121308824"/>
-        <c:axId val="2121305800"/>
+        <c:axId val="-2134930200"/>
+        <c:axId val="-2134927176"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2121308824"/>
+        <c:axId val="-2134930200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4000.0"/>
@@ -2986,12 +2988,12 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2121305800"/>
+        <c:crossAx val="-2134927176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2121305800"/>
+        <c:axId val="-2134927176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2000.0"/>
@@ -3013,7 +3015,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2121308824"/>
+        <c:crossAx val="-2134930200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4034,158 +4036,155 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="51"/>
-                <c:pt idx="0">
-                  <c:v>2421.0</c:v>
-                </c:pt>
                 <c:pt idx="1">
-                  <c:v>2097.0</c:v>
+                  <c:v>1625.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1795.0</c:v>
+                  <c:v>1424.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1787.0</c:v>
+                  <c:v>1251.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1380.0</c:v>
+                  <c:v>1247.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1115.0</c:v>
+                  <c:v>1234.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>984.0</c:v>
+                  <c:v>929.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>938.0</c:v>
+                  <c:v>928.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>839.0</c:v>
+                  <c:v>872.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>611.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>376.0</c:v>
+                  <c:v>274.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>161.0</c:v>
+                  <c:v>252.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>123.0</c:v>
+                  <c:v>22.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>53.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>22.0</c:v>
+                  <c:v>123.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
+                  <c:v>161.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>378.0</c:v>
                 </c:pt>
-                <c:pt idx="16">
-                  <c:v>252.0</c:v>
-                </c:pt>
                 <c:pt idx="17">
-                  <c:v>274.0</c:v>
+                  <c:v>376.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>298.0</c:v>
+                  <c:v>611.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>463.0</c:v>
+                  <c:v>241.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>872.0</c:v>
+                  <c:v>327.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>928.0</c:v>
+                  <c:v>457.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>929.0</c:v>
+                  <c:v>776.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1234.0</c:v>
+                  <c:v>953.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1247.0</c:v>
+                  <c:v>1178.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1251.0</c:v>
+                  <c:v>1256.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1424.0</c:v>
+                  <c:v>1429.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1621.0</c:v>
+                  <c:v>1323.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1625.0</c:v>
+                  <c:v>1286.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
+                  <c:v>1187.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>839.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>938.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>984.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1115.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1380.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1787.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1795.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1917.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2097.0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2421.0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2574.0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2482.0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2586.0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2628.0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2728.0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2678.0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2597.0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2573.0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2290.0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2139.0</c:v>
+                </c:pt>
+                <c:pt idx="50">
                   <c:v>1724.0</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>1807.0</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>2139.0</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>2290.0</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>2597.0</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>2678.0</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>2728.0</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>2576.0</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>2628.0</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>2716.0</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>2721.0</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>2945.0</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>2961.0</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>3085.0</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>3373.0</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>3384.0</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>3520.0</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>3479.0</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>3113.0</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>2599.0</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>2574.0</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>2421.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4196,158 +4195,155 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="51"/>
-                <c:pt idx="0">
-                  <c:v>1007.0</c:v>
-                </c:pt>
                 <c:pt idx="1">
-                  <c:v>981.0</c:v>
+                  <c:v>1651.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>962.0</c:v>
+                  <c:v>1728.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1009.0</c:v>
+                  <c:v>1832.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>939.0</c:v>
+                  <c:v>1945.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1052.0</c:v>
+                  <c:v>1946.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>965.0</c:v>
+                  <c:v>1766.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>955.0</c:v>
+                  <c:v>1700.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>620.0</c:v>
+                  <c:v>1559.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>673.0</c:v>
+                  <c:v>1384.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>825.0</c:v>
+                  <c:v>1420.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>906.0</c:v>
+                  <c:v>1240.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>862.0</c:v>
+                  <c:v>987.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>857.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>987.0</c:v>
+                  <c:v>862.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
+                  <c:v>906.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>1048.0</c:v>
                 </c:pt>
-                <c:pt idx="16">
-                  <c:v>1240.0</c:v>
-                </c:pt>
                 <c:pt idx="17">
-                  <c:v>1420.0</c:v>
+                  <c:v>825.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1513.0</c:v>
+                  <c:v>673.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1670.0</c:v>
+                  <c:v>341.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1559.0</c:v>
+                  <c:v>265.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1700.0</c:v>
+                  <c:v>334.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1766.0</c:v>
+                  <c:v>392.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1946.0</c:v>
+                  <c:v>268.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1945.0</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1832.0</c:v>
+                  <c:v>61.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1728.0</c:v>
+                  <c:v>134.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
+                  <c:v>280.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>525.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>706.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>620.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>955.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>965.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1052.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>939.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1009.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>962.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>687.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>981.0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1007.0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>946.0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1183.0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1286.0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1479.0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1698.0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1825.0</c:v>
+                </c:pt>
+                <c:pt idx="46">
                   <c:v>1830.0</c:v>
                 </c:pt>
-                <c:pt idx="28">
-                  <c:v>1651.0</c:v>
-                </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="47">
+                  <c:v>1969.0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1810.0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1806.0</c:v>
+                </c:pt>
+                <c:pt idx="50">
                   <c:v>1642.0</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>1711.0</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>1806.0</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>1810.0</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>1830.0</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>1825.0</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>1698.0</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>1676.0</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>1479.0</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>1432.0</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>1482.0</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>1622.0</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>1605.0</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>1528.0</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>1646.0</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>1498.0</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>1079.0</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>821.0</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>885.0</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>901.0</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>946.0</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>1007.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4367,11 +4363,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2121272888"/>
-        <c:axId val="2121269864"/>
+        <c:axId val="-2135841800"/>
+        <c:axId val="-2135844824"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2121272888"/>
+        <c:axId val="-2135841800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4000.0"/>
@@ -4393,12 +4389,12 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2121269864"/>
+        <c:crossAx val="-2135844824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2121269864"/>
+        <c:axId val="-2135844824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2000.0"/>
@@ -4420,7 +4416,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2121272888"/>
+        <c:crossAx val="-2135841800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5449,157 +5445,157 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="51"/>
                 <c:pt idx="0">
-                  <c:v>3815.0</c:v>
+                  <c:v>241.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3875.0</c:v>
+                  <c:v>19.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3888.0</c:v>
+                  <c:v>53.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3854.0</c:v>
+                  <c:v>123.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3822.0</c:v>
+                  <c:v>161.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3756.0</c:v>
+                  <c:v>22.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3520.0</c:v>
+                  <c:v>252.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3479.0</c:v>
+                  <c:v>274.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3113.0</c:v>
+                  <c:v>298.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2991.0</c:v>
+                  <c:v>198.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2863.0</c:v>
+                  <c:v>463.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3022.0</c:v>
+                  <c:v>611.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2936.0</c:v>
+                  <c:v>738.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2599.0</c:v>
+                  <c:v>872.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2574.0</c:v>
+                  <c:v>928.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2716.0</c:v>
+                  <c:v>929.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2721.0</c:v>
+                  <c:v>890.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3085.0</c:v>
+                  <c:v>1234.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2961.0</c:v>
+                  <c:v>1247.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2945.0</c:v>
+                  <c:v>1251.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2728.0</c:v>
+                  <c:v>1424.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2678.0</c:v>
+                  <c:v>1621.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2573.0</c:v>
+                  <c:v>1807.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2597.0</c:v>
+                  <c:v>1724.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2290.0</c:v>
+                  <c:v>1625.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2139.0</c:v>
+                  <c:v>1393.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1807.0</c:v>
+                  <c:v>1380.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1621.0</c:v>
+                  <c:v>1787.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1424.0</c:v>
+                  <c:v>1795.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1625.0</c:v>
+                  <c:v>2097.0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1724.0</c:v>
+                  <c:v>1917.0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>2178.0</c:v>
+                  <c:v>1429.0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>2576.0</c:v>
+                  <c:v>1256.0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>2628.0</c:v>
+                  <c:v>1178.0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>2586.0</c:v>
+                  <c:v>1323.0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>2482.0</c:v>
+                  <c:v>1286.0</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>2421.0</c:v>
+                  <c:v>1187.0</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>2097.0</c:v>
+                  <c:v>1115.0</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1787.0</c:v>
+                  <c:v>984.0</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>274.0</c:v>
+                  <c:v>938.0</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1917.0</c:v>
+                  <c:v>742.0</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>2573.0</c:v>
+                  <c:v>378.0</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>2588.0</c:v>
+                  <c:v>376.0</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>2542.0</c:v>
+                  <c:v>611.0</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>2519.0</c:v>
+                  <c:v>839.0</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>2848.0</c:v>
+                  <c:v>953.0</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>3416.0</c:v>
+                  <c:v>776.0</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>3640.0</c:v>
+                  <c:v>457.0</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>3893.0</c:v>
+                  <c:v>327.0</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>3913.0</c:v>
+                  <c:v>178.0</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>3815.0</c:v>
+                  <c:v>241.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5611,157 +5607,157 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="51"/>
                 <c:pt idx="0">
-                  <c:v>169.0</c:v>
+                  <c:v>341.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>598.0</c:v>
+                  <c:v>674.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>666.0</c:v>
+                  <c:v>857.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>923.0</c:v>
+                  <c:v>862.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>899.0</c:v>
+                  <c:v>906.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>882.0</c:v>
+                  <c:v>987.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1079.0</c:v>
+                  <c:v>1240.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>821.0</c:v>
+                  <c:v>1420.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>885.0</c:v>
+                  <c:v>1513.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>792.0</c:v>
+                  <c:v>1810.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>558.0</c:v>
+                  <c:v>1670.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>474.0</c:v>
+                  <c:v>1384.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>337.0</c:v>
+                  <c:v>1325.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>901.0</c:v>
+                  <c:v>1559.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>946.0</c:v>
+                  <c:v>1700.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1432.0</c:v>
+                  <c:v>1766.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1482.0</c:v>
+                  <c:v>1846.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1528.0</c:v>
+                  <c:v>1946.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1605.0</c:v>
+                  <c:v>1945.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1622.0</c:v>
+                  <c:v>1832.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1698.0</c:v>
+                  <c:v>1728.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1825.0</c:v>
+                  <c:v>1830.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1969.0</c:v>
+                  <c:v>1711.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1830.0</c:v>
+                  <c:v>1642.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1810.0</c:v>
+                  <c:v>1651.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1806.0</c:v>
+                  <c:v>1368.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1711.0</c:v>
+                  <c:v>939.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1830.0</c:v>
+                  <c:v>1009.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1728.0</c:v>
+                  <c:v>962.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1651.0</c:v>
+                  <c:v>981.0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1642.0</c:v>
+                  <c:v>687.0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1619.0</c:v>
+                  <c:v>134.0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1676.0</c:v>
+                  <c:v>61.0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1479.0</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1286.0</c:v>
+                  <c:v>280.0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1183.0</c:v>
+                  <c:v>525.0</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1007.0</c:v>
+                  <c:v>706.0</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>981.0</c:v>
+                  <c:v>1052.0</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1009.0</c:v>
+                  <c:v>965.0</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1420.0</c:v>
+                  <c:v>955.0</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>687.0</c:v>
+                  <c:v>1025.0</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>599.0</c:v>
+                  <c:v>1048.0</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>302.0</c:v>
+                  <c:v>825.0</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>236.0</c:v>
+                  <c:v>673.0</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>135.0</c:v>
+                  <c:v>620.0</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>96.0</c:v>
+                  <c:v>268.0</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>143.0</c:v>
+                  <c:v>392.0</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>43.0</c:v>
+                  <c:v>334.0</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>102.0</c:v>
+                  <c:v>265.0</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>192.0</c:v>
+                  <c:v>24.0</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>169.0</c:v>
+                  <c:v>341.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5781,11 +5777,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2123885160"/>
-        <c:axId val="2123888184"/>
+        <c:axId val="-2135877784"/>
+        <c:axId val="-2135880808"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2123885160"/>
+        <c:axId val="-2135877784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4000.0"/>
@@ -5807,12 +5803,12 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2123888184"/>
+        <c:crossAx val="-2135880808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2123888184"/>
+        <c:axId val="-2135880808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2000.0"/>
@@ -5834,7 +5830,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2123885160"/>
+        <c:crossAx val="-2135877784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6871,157 +6867,157 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="51"/>
                 <c:pt idx="0">
-                  <c:v>198.0</c:v>
+                  <c:v>1724.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>463.0</c:v>
+                  <c:v>1625.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>298.0</c:v>
+                  <c:v>1424.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>1251.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1247.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1234.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>929.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>928.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>872.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>611.0</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="10">
                   <c:v>274.0</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="11">
                   <c:v>252.0</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="12">
+                  <c:v>22.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>53.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>123.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>161.0</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>123.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>53.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="16">
+                  <c:v>378.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>376.0</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>19.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="18">
+                  <c:v>611.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>241.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>327.0</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="21">
                   <c:v>457.0</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="22">
                   <c:v>776.0</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="23">
                   <c:v>953.0</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="24">
+                  <c:v>1178.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
                   <c:v>1256.0</c:v>
                 </c:pt>
-                <c:pt idx="16">
-                  <c:v>1178.0</c:v>
-                </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="26">
                   <c:v>1429.0</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="27">
+                  <c:v>1323.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1286.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
                   <c:v>1187.0</c:v>
                 </c:pt>
-                <c:pt idx="19">
-                  <c:v>1286.0</c:v>
-                </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="30">
                   <c:v>839.0</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="31">
+                  <c:v>938.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
                   <c:v>984.0</c:v>
                 </c:pt>
-                <c:pt idx="22">
-                  <c:v>742.0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>938.0</c:v>
-                </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="33">
                   <c:v>1115.0</c:v>
                 </c:pt>
-                <c:pt idx="25">
-                  <c:v>1393.0</c:v>
-                </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="34">
                   <c:v>1380.0</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="35">
+                  <c:v>1787.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
                   <c:v>1795.0</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="37">
                   <c:v>1917.0</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="38">
                   <c:v>2097.0</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="39">
+                  <c:v>2421.0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2574.0</c:v>
+                </c:pt>
+                <c:pt idx="41">
                   <c:v>2482.0</c:v>
                 </c:pt>
-                <c:pt idx="31">
-                  <c:v>2421.0</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>2599.0</c:v>
-                </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="42">
                   <c:v>2586.0</c:v>
                 </c:pt>
-                <c:pt idx="34">
-                  <c:v>2716.0</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>2721.0</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>2576.0</c:v>
-                </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="43">
+                  <c:v>2628.0</c:v>
+                </c:pt>
+                <c:pt idx="44">
                   <c:v>2728.0</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="45">
+                  <c:v>2678.0</c:v>
+                </c:pt>
+                <c:pt idx="46">
                   <c:v>2597.0</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="47">
+                  <c:v>2573.0</c:v>
+                </c:pt>
+                <c:pt idx="48">
                   <c:v>2290.0</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="49">
                   <c:v>2139.0</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="50">
                   <c:v>1724.0</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>1621.0</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>1625.0</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>1424.0</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>1247.0</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>1251.0</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>929.0</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>890.0</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>1234.0</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>198.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7033,157 +7029,157 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="51"/>
                 <c:pt idx="0">
+                  <c:v>1642.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1651.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1728.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1832.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1945.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1946.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1766.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1700.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1559.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1384.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1420.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1240.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>987.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>857.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>862.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>906.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1048.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>825.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>673.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>341.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>265.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>334.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>392.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>268.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>61.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>134.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>280.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>525.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>706.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>620.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>955.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>965.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1052.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>939.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1009.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>962.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>687.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>981.0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1007.0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>946.0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1183.0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1286.0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1479.0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1698.0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1825.0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1830.0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1969.0</c:v>
+                </c:pt>
+                <c:pt idx="48">
                   <c:v>1810.0</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>1670.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1513.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1384.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1420.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1240.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>906.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>862.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>857.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>825.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>674.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>265.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>334.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>392.0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>268.0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>61.0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>134.0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>706.0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>525.0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>620.0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>965.0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1025.0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>955.0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1052.0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1368.0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>939.0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>962.0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>687.0</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>981.0</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>1183.0</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>1007.0</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>901.0</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>1286.0</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>1432.0</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>1482.0</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>1676.0</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>1698.0</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>1830.0</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>1810.0</c:v>
-                </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="49">
                   <c:v>1806.0</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="50">
                   <c:v>1642.0</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>1830.0</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>1651.0</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>1728.0</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>1945.0</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>1832.0</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>1766.0</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>1846.0</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>1946.0</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>1810.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7203,11 +7199,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2123920776"/>
-        <c:axId val="2123923800"/>
+        <c:axId val="-2135913848"/>
+        <c:axId val="-2135916872"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2123920776"/>
+        <c:axId val="-2135913848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4000.0"/>
@@ -7229,12 +7225,12 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2123923800"/>
+        <c:crossAx val="-2135916872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2123923800"/>
+        <c:axId val="-2135916872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2000.0"/>
@@ -7256,7 +7252,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2123920776"/>
+        <c:crossAx val="-2135913848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7299,14 +7295,6 @@
             <a:r>
               <a:rPr lang="pl-PL"/>
               <a:t>Random </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="pl-PL" baseline="0"/>
-              <a:t>Grasp</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="pl-PL"/>
-              <a:t> </a:t>
             </a:r>
             <a:r>
               <a:rPr lang="pl-PL" baseline="0"/>
@@ -8293,157 +8281,157 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="51"/>
                 <c:pt idx="0">
+                  <c:v>1187.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>938.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>984.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1380.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>1917.0</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="5">
+                  <c:v>2588.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2542.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2519.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2848.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3416.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3815.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3875.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3888.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3854.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3822.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3756.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3479.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3520.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3384.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3510.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3373.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>2961.0</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>1115.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1323.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="22">
+                  <c:v>2945.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2721.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2716.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2586.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2482.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2628.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2576.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2728.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
                   <c:v>2678.0</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>3373.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3683.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3950.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1795.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2178.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="31">
                   <c:v>2597.0</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>2848.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>3640.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2588.0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>161.0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>738.0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>463.0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>19.0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>53.0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>123.0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>298.0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>22.0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>178.0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1724.0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>984.0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>252.0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>274.0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1187.0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>378.0</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1393.0</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>3888.0</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>198.0</c:v>
-                </c:pt>
                 <c:pt idx="32">
-                  <c:v>3085.0</c:v>
+                  <c:v>2290.0</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>2139.0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1247.0</c:v>
+                  <c:v>2178.0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>2716.0</c:v>
+                  <c:v>1807.0</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>3520.0</c:v>
+                  <c:v>1724.0</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>3911.0</c:v>
+                  <c:v>1625.0</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>3384.0</c:v>
+                  <c:v>1621.0</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>3510.0</c:v>
+                  <c:v>1424.0</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>3113.0</c:v>
+                  <c:v>928.0</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>2573.0</c:v>
+                  <c:v>872.0</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>3416.0</c:v>
+                  <c:v>738.0</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>2586.0</c:v>
+                  <c:v>742.0</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>3022.0</c:v>
+                  <c:v>839.0</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>3875.0</c:v>
+                  <c:v>953.0</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>2721.0</c:v>
+                  <c:v>1178.0</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>872.0</c:v>
+                  <c:v>1256.0</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1621.0</c:v>
+                  <c:v>1323.0</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>2573.0</c:v>
+                  <c:v>1286.0</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1917.0</c:v>
+                  <c:v>1187.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8455,157 +8443,157 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="51"/>
                 <c:pt idx="0">
+                  <c:v>706.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>955.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>965.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>939.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>687.0</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="5">
+                  <c:v>302.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>236.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>135.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>96.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>143.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>169.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>598.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>666.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>923.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>899.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>882.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>821.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1079.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1498.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1671.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1646.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>1605.0</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>1052.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>280.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="22">
+                  <c:v>1622.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1482.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1432.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1286.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1183.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1479.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1676.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1698.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
                   <c:v>1825.0</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>1646.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1533.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1558.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>962.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1619.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="31">
                   <c:v>1830.0</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>96.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>43.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>302.0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>906.0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1325.0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1670.0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>674.0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>857.0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>862.0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1513.0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>987.0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>24.0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1642.0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>965.0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1240.0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1420.0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>706.0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1048.0</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1368.0</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>666.0</c:v>
-                </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>1810.0</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>1528.0</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>1806.0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1945.0</c:v>
+                  <c:v>1619.0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1432.0</c:v>
+                  <c:v>1711.0</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1079.0</c:v>
+                  <c:v>1642.0</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1673.0</c:v>
+                  <c:v>1651.0</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1498.0</c:v>
+                  <c:v>1830.0</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1671.0</c:v>
+                  <c:v>1728.0</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>885.0</c:v>
+                  <c:v>1700.0</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>599.0</c:v>
+                  <c:v>1559.0</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>143.0</c:v>
+                  <c:v>1325.0</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1286.0</c:v>
+                  <c:v>1025.0</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>474.0</c:v>
+                  <c:v>620.0</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>598.0</c:v>
+                  <c:v>268.0</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1482.0</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1559.0</c:v>
+                  <c:v>61.0</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1830.0</c:v>
+                  <c:v>280.0</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1969.0</c:v>
+                  <c:v>525.0</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>687.0</c:v>
+                  <c:v>706.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8625,11 +8613,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2119211240"/>
-        <c:axId val="2119213416"/>
+        <c:axId val="-2133721144"/>
+        <c:axId val="-2133718152"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2119211240"/>
+        <c:axId val="-2133721144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4000.0"/>
@@ -8651,12 +8639,12 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2119213416"/>
+        <c:crossAx val="-2133718152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2119213416"/>
+        <c:axId val="-2133718152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2000.0"/>
@@ -8678,7 +8666,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2119211240"/>
+        <c:crossAx val="-2133721144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9771,8 +9759,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B68" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="R82" sqref="R82"/>
+    <sheetView tabSelected="1" topLeftCell="AS70" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="BG87" sqref="BG87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -11011,42 +10999,24 @@
       <c r="K105" s="6">
         <v>1</v>
       </c>
-      <c r="L105">
-        <v>60</v>
-      </c>
-      <c r="M105">
-        <v>2421</v>
-      </c>
-      <c r="N105">
-        <v>1007</v>
-      </c>
       <c r="P105" s="6"/>
-      <c r="Q105">
-        <v>12</v>
-      </c>
       <c r="R105">
-        <v>3815</v>
+        <v>241</v>
       </c>
       <c r="S105">
-        <v>169</v>
-      </c>
-      <c r="W105">
-        <v>41</v>
+        <v>341</v>
       </c>
       <c r="X105">
-        <v>198</v>
+        <v>1724</v>
       </c>
       <c r="Y105">
-        <v>1810</v>
-      </c>
-      <c r="Z105">
-        <v>66</v>
+        <v>1642</v>
       </c>
       <c r="AA105">
-        <v>1917</v>
+        <v>1187</v>
       </c>
       <c r="AB105">
-        <v>687</v>
+        <v>706</v>
       </c>
     </row>
     <row r="106" spans="1:28">
@@ -11081,38 +11051,38 @@
         <v>57</v>
       </c>
       <c r="M106">
-        <v>2097</v>
+        <v>1625</v>
       </c>
       <c r="N106">
-        <v>981</v>
+        <v>1651</v>
       </c>
       <c r="P106" s="6"/>
       <c r="Q106">
         <v>36</v>
       </c>
       <c r="R106">
-        <v>3875</v>
+        <v>19</v>
       </c>
       <c r="S106">
-        <v>598</v>
+        <v>674</v>
       </c>
       <c r="W106">
         <v>79</v>
       </c>
       <c r="X106">
-        <v>463</v>
+        <v>1625</v>
       </c>
       <c r="Y106">
-        <v>1670</v>
+        <v>1651</v>
       </c>
       <c r="Z106">
         <v>82</v>
       </c>
       <c r="AA106">
-        <v>2961</v>
+        <v>938</v>
       </c>
       <c r="AB106">
-        <v>1605</v>
+        <v>955</v>
       </c>
     </row>
     <row r="107" spans="1:28">
@@ -11147,38 +11117,38 @@
         <v>27</v>
       </c>
       <c r="M107">
-        <v>1795</v>
+        <v>1424</v>
       </c>
       <c r="N107">
-        <v>962</v>
+        <v>1728</v>
       </c>
       <c r="P107" s="6"/>
       <c r="Q107">
         <v>4</v>
       </c>
       <c r="R107">
-        <v>3888</v>
+        <v>53</v>
       </c>
       <c r="S107">
-        <v>666</v>
+        <v>857</v>
       </c>
       <c r="W107">
         <v>55</v>
       </c>
       <c r="X107">
-        <v>298</v>
+        <v>1424</v>
       </c>
       <c r="Y107">
-        <v>1513</v>
+        <v>1728</v>
       </c>
       <c r="Z107">
         <v>62</v>
       </c>
       <c r="AA107">
-        <v>1115</v>
+        <v>984</v>
       </c>
       <c r="AB107">
-        <v>1052</v>
+        <v>965</v>
       </c>
     </row>
     <row r="108" spans="1:28">
@@ -11213,10 +11183,10 @@
         <v>92</v>
       </c>
       <c r="M108">
-        <v>1787</v>
+        <v>1251</v>
       </c>
       <c r="N108">
-        <v>1009</v>
+        <v>1832</v>
       </c>
       <c r="P108" s="6">
         <v>4</v>
@@ -11225,28 +11195,28 @@
         <v>51</v>
       </c>
       <c r="R108">
-        <v>3854</v>
+        <v>123</v>
       </c>
       <c r="S108">
-        <v>923</v>
+        <v>862</v>
       </c>
       <c r="W108">
         <v>96</v>
       </c>
       <c r="X108">
-        <v>611</v>
+        <v>1251</v>
       </c>
       <c r="Y108">
-        <v>1384</v>
+        <v>1832</v>
       </c>
       <c r="Z108">
         <v>41</v>
       </c>
       <c r="AA108">
-        <v>1323</v>
+        <v>1380</v>
       </c>
       <c r="AB108">
-        <v>280</v>
+        <v>939</v>
       </c>
     </row>
     <row r="109" spans="1:28">
@@ -11281,10 +11251,10 @@
         <v>0</v>
       </c>
       <c r="M109">
-        <v>1380</v>
+        <v>1247</v>
       </c>
       <c r="N109">
-        <v>939</v>
+        <v>1945</v>
       </c>
       <c r="P109" s="6">
         <v>5</v>
@@ -11293,28 +11263,28 @@
         <v>77</v>
       </c>
       <c r="R109">
-        <v>3822</v>
+        <v>161</v>
       </c>
       <c r="S109">
-        <v>899</v>
+        <v>906</v>
       </c>
       <c r="W109">
         <v>18</v>
       </c>
       <c r="X109">
-        <v>274</v>
+        <v>1247</v>
       </c>
       <c r="Y109">
-        <v>1420</v>
+        <v>1945</v>
       </c>
       <c r="Z109">
         <v>26</v>
       </c>
       <c r="AA109">
-        <v>2678</v>
+        <v>1917</v>
       </c>
       <c r="AB109">
-        <v>1825</v>
+        <v>687</v>
       </c>
     </row>
     <row r="110" spans="1:28">
@@ -11349,10 +11319,10 @@
         <v>62</v>
       </c>
       <c r="M110">
-        <v>1115</v>
+        <v>1234</v>
       </c>
       <c r="N110">
-        <v>1052</v>
+        <v>1946</v>
       </c>
       <c r="P110" s="6">
         <v>6</v>
@@ -11361,28 +11331,28 @@
         <v>95</v>
       </c>
       <c r="R110">
-        <v>3756</v>
+        <v>22</v>
       </c>
       <c r="S110">
-        <v>882</v>
+        <v>987</v>
       </c>
       <c r="W110">
         <v>74</v>
       </c>
       <c r="X110">
-        <v>252</v>
+        <v>1234</v>
       </c>
       <c r="Y110">
-        <v>1240</v>
+        <v>1946</v>
       </c>
       <c r="Z110">
         <v>45</v>
       </c>
       <c r="AA110">
-        <v>3373</v>
+        <v>2588</v>
       </c>
       <c r="AB110">
-        <v>1646</v>
+        <v>302</v>
       </c>
     </row>
     <row r="111" spans="1:28">
@@ -11417,10 +11387,10 @@
         <v>5</v>
       </c>
       <c r="M111">
-        <v>984</v>
+        <v>929</v>
       </c>
       <c r="N111">
-        <v>965</v>
+        <v>1766</v>
       </c>
       <c r="P111" s="6">
         <v>7</v>
@@ -11429,28 +11399,28 @@
         <v>29</v>
       </c>
       <c r="R111">
-        <v>3520</v>
+        <v>252</v>
       </c>
       <c r="S111">
-        <v>1079</v>
+        <v>1240</v>
       </c>
       <c r="W111">
         <v>48</v>
       </c>
       <c r="X111">
-        <v>161</v>
+        <v>929</v>
       </c>
       <c r="Y111">
-        <v>906</v>
+        <v>1766</v>
       </c>
       <c r="Z111">
         <v>13</v>
       </c>
       <c r="AA111">
-        <v>3683</v>
+        <v>2542</v>
       </c>
       <c r="AB111">
-        <v>1533</v>
+        <v>236</v>
       </c>
     </row>
     <row r="112" spans="1:28">
@@ -11485,10 +11455,10 @@
         <v>48</v>
       </c>
       <c r="M112">
-        <v>938</v>
+        <v>928</v>
       </c>
       <c r="N112">
-        <v>955</v>
+        <v>1700</v>
       </c>
       <c r="P112" s="6">
         <v>8</v>
@@ -11497,28 +11467,28 @@
         <v>38</v>
       </c>
       <c r="R112">
-        <v>3479</v>
+        <v>274</v>
       </c>
       <c r="S112">
-        <v>821</v>
+        <v>1420</v>
       </c>
       <c r="W112">
         <v>5</v>
       </c>
       <c r="X112">
-        <v>123</v>
+        <v>928</v>
       </c>
       <c r="Y112">
-        <v>862</v>
+        <v>1700</v>
       </c>
       <c r="Z112">
         <v>99</v>
       </c>
       <c r="AA112">
-        <v>3950</v>
+        <v>2519</v>
       </c>
       <c r="AB112">
-        <v>1558</v>
+        <v>135</v>
       </c>
     </row>
     <row r="113" spans="1:28">
@@ -11553,10 +11523,10 @@
         <v>74</v>
       </c>
       <c r="M113">
-        <v>839</v>
+        <v>872</v>
       </c>
       <c r="N113">
-        <v>620</v>
+        <v>1559</v>
       </c>
       <c r="P113" s="6">
         <v>9</v>
@@ -11565,28 +11535,28 @@
         <v>84</v>
       </c>
       <c r="R113">
-        <v>3113</v>
+        <v>298</v>
       </c>
       <c r="S113">
-        <v>885</v>
+        <v>1513</v>
       </c>
       <c r="W113">
         <v>91</v>
       </c>
       <c r="X113">
-        <v>53</v>
+        <v>872</v>
       </c>
       <c r="Y113">
-        <v>857</v>
+        <v>1559</v>
       </c>
       <c r="Z113">
         <v>27</v>
       </c>
       <c r="AA113">
-        <v>1795</v>
+        <v>2848</v>
       </c>
       <c r="AB113">
-        <v>962</v>
+        <v>96</v>
       </c>
     </row>
     <row r="114" spans="1:28">
@@ -11624,7 +11594,7 @@
         <v>611</v>
       </c>
       <c r="N114">
-        <v>673</v>
+        <v>1384</v>
       </c>
       <c r="P114" s="6">
         <v>10</v>
@@ -11633,28 +11603,28 @@
         <v>67</v>
       </c>
       <c r="R114">
-        <v>2991</v>
+        <v>198</v>
       </c>
       <c r="S114">
-        <v>792</v>
+        <v>1810</v>
       </c>
       <c r="W114">
         <v>7</v>
       </c>
       <c r="X114">
-        <v>376</v>
+        <v>611</v>
       </c>
       <c r="Y114">
-        <v>825</v>
+        <v>1384</v>
       </c>
       <c r="Z114">
         <v>76</v>
       </c>
       <c r="AA114">
-        <v>2178</v>
+        <v>3416</v>
       </c>
       <c r="AB114">
-        <v>1619</v>
+        <v>143</v>
       </c>
     </row>
     <row r="115" spans="1:28">
@@ -11689,10 +11659,10 @@
         <v>52</v>
       </c>
       <c r="M115">
-        <v>376</v>
+        <v>274</v>
       </c>
       <c r="N115">
-        <v>825</v>
+        <v>1420</v>
       </c>
       <c r="P115" s="6">
         <v>11</v>
@@ -11701,28 +11671,28 @@
         <v>72</v>
       </c>
       <c r="R115">
-        <v>2863</v>
+        <v>463</v>
       </c>
       <c r="S115">
-        <v>558</v>
+        <v>1670</v>
       </c>
       <c r="W115">
         <v>0</v>
       </c>
       <c r="X115">
-        <v>19</v>
+        <v>274</v>
       </c>
       <c r="Y115">
-        <v>674</v>
+        <v>1420</v>
       </c>
       <c r="Z115">
         <v>85</v>
       </c>
       <c r="AA115">
-        <v>2597</v>
+        <v>3815</v>
       </c>
       <c r="AB115">
-        <v>1830</v>
+        <v>169</v>
       </c>
     </row>
     <row r="116" spans="1:28">
@@ -11757,10 +11727,10 @@
         <v>87</v>
       </c>
       <c r="M116">
-        <v>161</v>
+        <v>252</v>
       </c>
       <c r="N116">
-        <v>906</v>
+        <v>1240</v>
       </c>
       <c r="P116" s="6">
         <v>12</v>
@@ -11769,28 +11739,28 @@
         <v>49</v>
       </c>
       <c r="R116">
-        <v>3022</v>
+        <v>611</v>
       </c>
       <c r="S116">
-        <v>474</v>
+        <v>1384</v>
       </c>
       <c r="W116">
         <v>94</v>
       </c>
       <c r="X116">
-        <v>327</v>
+        <v>252</v>
       </c>
       <c r="Y116">
-        <v>265</v>
+        <v>1240</v>
       </c>
       <c r="Z116">
         <v>1</v>
       </c>
       <c r="AA116">
-        <v>2848</v>
+        <v>3875</v>
       </c>
       <c r="AB116">
-        <v>96</v>
+        <v>598</v>
       </c>
     </row>
     <row r="117" spans="1:28">
@@ -11825,10 +11795,10 @@
         <v>15</v>
       </c>
       <c r="M117">
-        <v>123</v>
+        <v>22</v>
       </c>
       <c r="N117">
-        <v>862</v>
+        <v>987</v>
       </c>
       <c r="P117" s="6">
         <v>13</v>
@@ -11837,28 +11807,28 @@
         <v>43</v>
       </c>
       <c r="R117">
-        <v>2936</v>
+        <v>738</v>
       </c>
       <c r="S117">
-        <v>337</v>
+        <v>1325</v>
       </c>
       <c r="W117">
         <v>92</v>
       </c>
       <c r="X117">
-        <v>457</v>
+        <v>22</v>
       </c>
       <c r="Y117">
-        <v>334</v>
+        <v>987</v>
       </c>
       <c r="Z117">
         <v>94</v>
       </c>
       <c r="AA117">
-        <v>3640</v>
+        <v>3888</v>
       </c>
       <c r="AB117">
-        <v>43</v>
+        <v>666</v>
       </c>
     </row>
     <row r="118" spans="1:28">
@@ -11905,28 +11875,28 @@
         <v>80</v>
       </c>
       <c r="R118">
-        <v>2599</v>
+        <v>872</v>
       </c>
       <c r="S118">
-        <v>901</v>
+        <v>1559</v>
       </c>
       <c r="W118">
         <v>66</v>
       </c>
       <c r="X118">
-        <v>776</v>
+        <v>53</v>
       </c>
       <c r="Y118">
-        <v>392</v>
+        <v>857</v>
       </c>
       <c r="Z118">
         <v>63</v>
       </c>
       <c r="AA118">
-        <v>2588</v>
+        <v>3854</v>
       </c>
       <c r="AB118">
-        <v>302</v>
+        <v>923</v>
       </c>
     </row>
     <row r="119" spans="1:28">
@@ -11961,10 +11931,10 @@
         <v>93</v>
       </c>
       <c r="M119">
-        <v>22</v>
+        <v>123</v>
       </c>
       <c r="N119">
-        <v>987</v>
+        <v>862</v>
       </c>
       <c r="P119" s="6">
         <v>15</v>
@@ -11973,28 +11943,28 @@
         <v>24</v>
       </c>
       <c r="R119">
-        <v>2574</v>
+        <v>928</v>
       </c>
       <c r="S119">
-        <v>946</v>
+        <v>1700</v>
       </c>
       <c r="W119">
         <v>60</v>
       </c>
       <c r="X119">
-        <v>953</v>
+        <v>123</v>
       </c>
       <c r="Y119">
-        <v>268</v>
+        <v>862</v>
       </c>
       <c r="Z119">
         <v>87</v>
       </c>
       <c r="AA119">
-        <v>161</v>
+        <v>3822</v>
       </c>
       <c r="AB119">
-        <v>906</v>
+        <v>899</v>
       </c>
     </row>
     <row r="120" spans="1:28">
@@ -12029,10 +11999,10 @@
         <v>78</v>
       </c>
       <c r="M120">
-        <v>378</v>
+        <v>161</v>
       </c>
       <c r="N120">
-        <v>1048</v>
+        <v>906</v>
       </c>
       <c r="P120" s="6">
         <v>16</v>
@@ -12041,28 +12011,28 @@
         <v>8</v>
       </c>
       <c r="R120">
-        <v>2716</v>
+        <v>929</v>
       </c>
       <c r="S120">
-        <v>1432</v>
+        <v>1766</v>
       </c>
       <c r="W120">
         <v>24</v>
       </c>
       <c r="X120">
-        <v>1256</v>
+        <v>161</v>
       </c>
       <c r="Y120">
-        <v>61</v>
+        <v>906</v>
       </c>
       <c r="Z120">
         <v>9</v>
       </c>
       <c r="AA120">
-        <v>738</v>
+        <v>3756</v>
       </c>
       <c r="AB120">
-        <v>1325</v>
+        <v>882</v>
       </c>
     </row>
     <row r="121" spans="1:28">
@@ -12097,10 +12067,10 @@
         <v>17</v>
       </c>
       <c r="M121">
-        <v>252</v>
+        <v>378</v>
       </c>
       <c r="N121">
-        <v>1240</v>
+        <v>1048</v>
       </c>
       <c r="P121" s="6">
         <v>17</v>
@@ -12109,28 +12079,28 @@
         <v>6</v>
       </c>
       <c r="R121">
-        <v>2721</v>
+        <v>890</v>
       </c>
       <c r="S121">
-        <v>1482</v>
+        <v>1846</v>
       </c>
       <c r="W121">
         <v>86</v>
       </c>
       <c r="X121">
-        <v>1178</v>
+        <v>378</v>
       </c>
       <c r="Y121">
-        <v>100</v>
+        <v>1048</v>
       </c>
       <c r="Z121">
         <v>35</v>
       </c>
       <c r="AA121">
-        <v>463</v>
+        <v>3479</v>
       </c>
       <c r="AB121">
-        <v>1670</v>
+        <v>821</v>
       </c>
     </row>
     <row r="122" spans="1:28">
@@ -12165,10 +12135,10 @@
         <v>23</v>
       </c>
       <c r="M122">
-        <v>274</v>
+        <v>376</v>
       </c>
       <c r="N122">
-        <v>1420</v>
+        <v>825</v>
       </c>
       <c r="P122" s="6">
         <v>18</v>
@@ -12177,28 +12147,28 @@
         <v>33</v>
       </c>
       <c r="R122">
-        <v>3085</v>
+        <v>1234</v>
       </c>
       <c r="S122">
-        <v>1528</v>
+        <v>1946</v>
       </c>
       <c r="W122">
         <v>8</v>
       </c>
       <c r="X122">
-        <v>1429</v>
+        <v>376</v>
       </c>
       <c r="Y122">
-        <v>134</v>
+        <v>825</v>
       </c>
       <c r="Z122">
         <v>69</v>
       </c>
       <c r="AA122">
-        <v>19</v>
+        <v>3520</v>
       </c>
       <c r="AB122">
-        <v>674</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="123" spans="1:28">
@@ -12233,10 +12203,10 @@
         <v>37</v>
       </c>
       <c r="M123">
-        <v>298</v>
+        <v>611</v>
       </c>
       <c r="N123">
-        <v>1513</v>
+        <v>673</v>
       </c>
       <c r="P123" s="6">
         <v>19</v>
@@ -12245,28 +12215,28 @@
         <v>82</v>
       </c>
       <c r="R123">
-        <v>2961</v>
+        <v>1247</v>
       </c>
       <c r="S123">
-        <v>1605</v>
+        <v>1945</v>
       </c>
       <c r="W123">
         <v>6</v>
       </c>
       <c r="X123">
-        <v>1187</v>
+        <v>611</v>
       </c>
       <c r="Y123">
-        <v>706</v>
+        <v>673</v>
       </c>
       <c r="Z123">
         <v>21</v>
       </c>
       <c r="AA123">
-        <v>53</v>
+        <v>3384</v>
       </c>
       <c r="AB123">
-        <v>857</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="124" spans="1:28">
@@ -12301,10 +12271,10 @@
         <v>35</v>
       </c>
       <c r="M124">
-        <v>463</v>
+        <v>241</v>
       </c>
       <c r="N124">
-        <v>1670</v>
+        <v>341</v>
       </c>
       <c r="P124" s="6">
         <v>20</v>
@@ -12313,28 +12283,28 @@
         <v>54</v>
       </c>
       <c r="R124">
-        <v>2945</v>
+        <v>1251</v>
       </c>
       <c r="S124">
-        <v>1622</v>
+        <v>1832</v>
       </c>
       <c r="W124">
         <v>11</v>
       </c>
       <c r="X124">
-        <v>1286</v>
+        <v>241</v>
       </c>
       <c r="Y124">
-        <v>525</v>
+        <v>341</v>
       </c>
       <c r="Z124">
         <v>15</v>
       </c>
       <c r="AA124">
-        <v>123</v>
+        <v>3510</v>
       </c>
       <c r="AB124">
-        <v>862</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="125" spans="1:28">
@@ -12369,10 +12339,10 @@
         <v>71</v>
       </c>
       <c r="M125">
-        <v>872</v>
+        <v>327</v>
       </c>
       <c r="N125">
-        <v>1559</v>
+        <v>265</v>
       </c>
       <c r="P125" s="6">
         <v>21</v>
@@ -12381,28 +12351,28 @@
         <v>11</v>
       </c>
       <c r="R125">
-        <v>2728</v>
+        <v>1424</v>
       </c>
       <c r="S125">
-        <v>1698</v>
+        <v>1728</v>
       </c>
       <c r="W125">
         <v>19</v>
       </c>
       <c r="X125">
-        <v>839</v>
+        <v>327</v>
       </c>
       <c r="Y125">
-        <v>620</v>
+        <v>265</v>
       </c>
       <c r="Z125">
         <v>37</v>
       </c>
       <c r="AA125">
-        <v>298</v>
+        <v>3373</v>
       </c>
       <c r="AB125">
-        <v>1513</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="126" spans="1:28">
@@ -12437,10 +12407,10 @@
         <v>20</v>
       </c>
       <c r="M126">
-        <v>928</v>
+        <v>457</v>
       </c>
       <c r="N126">
-        <v>1700</v>
+        <v>334</v>
       </c>
       <c r="P126" s="6">
         <v>22</v>
@@ -12449,28 +12419,28 @@
         <v>26</v>
       </c>
       <c r="R126">
-        <v>2678</v>
+        <v>1621</v>
       </c>
       <c r="S126">
-        <v>1825</v>
+        <v>1830</v>
       </c>
       <c r="W126">
         <v>26</v>
       </c>
       <c r="X126">
-        <v>984</v>
+        <v>457</v>
       </c>
       <c r="Y126">
-        <v>965</v>
+        <v>334</v>
       </c>
       <c r="Z126">
         <v>93</v>
       </c>
       <c r="AA126">
-        <v>22</v>
+        <v>2961</v>
       </c>
       <c r="AB126">
-        <v>987</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="127" spans="1:28">
@@ -12505,10 +12475,10 @@
         <v>73</v>
       </c>
       <c r="M127">
-        <v>929</v>
+        <v>776</v>
       </c>
       <c r="N127">
-        <v>1766</v>
+        <v>392</v>
       </c>
       <c r="P127" s="6">
         <v>23</v>
@@ -12517,28 +12487,28 @@
         <v>34</v>
       </c>
       <c r="R127">
-        <v>2573</v>
+        <v>1807</v>
       </c>
       <c r="S127">
-        <v>1969</v>
+        <v>1711</v>
       </c>
       <c r="W127">
         <v>54</v>
       </c>
       <c r="X127">
-        <v>742</v>
+        <v>776</v>
       </c>
       <c r="Y127">
-        <v>1025</v>
+        <v>392</v>
       </c>
       <c r="Z127">
         <v>25</v>
       </c>
       <c r="AA127">
-        <v>178</v>
+        <v>2945</v>
       </c>
       <c r="AB127">
-        <v>24</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="128" spans="1:28">
@@ -12573,10 +12543,10 @@
         <v>16</v>
       </c>
       <c r="M128">
-        <v>1234</v>
+        <v>953</v>
       </c>
       <c r="N128">
-        <v>1946</v>
+        <v>268</v>
       </c>
       <c r="P128" s="6">
         <v>24</v>
@@ -12585,28 +12555,28 @@
         <v>85</v>
       </c>
       <c r="R128">
-        <v>2597</v>
+        <v>1724</v>
       </c>
       <c r="S128">
-        <v>1830</v>
+        <v>1642</v>
       </c>
       <c r="W128">
         <v>82</v>
       </c>
       <c r="X128">
-        <v>938</v>
+        <v>953</v>
       </c>
       <c r="Y128">
-        <v>955</v>
+        <v>268</v>
       </c>
       <c r="Z128">
         <v>97</v>
       </c>
       <c r="AA128">
-        <v>1724</v>
+        <v>2721</v>
       </c>
       <c r="AB128">
-        <v>1642</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="129" spans="1:28">
@@ -12641,10 +12611,10 @@
         <v>14</v>
       </c>
       <c r="M129">
-        <v>1247</v>
+        <v>1178</v>
       </c>
       <c r="N129">
-        <v>1945</v>
+        <v>100</v>
       </c>
       <c r="P129" s="6">
         <v>25</v>
@@ -12653,28 +12623,28 @@
         <v>61</v>
       </c>
       <c r="R129">
-        <v>2290</v>
+        <v>1625</v>
       </c>
       <c r="S129">
-        <v>1810</v>
+        <v>1651</v>
       </c>
       <c r="W129">
         <v>56</v>
       </c>
       <c r="X129">
-        <v>1115</v>
+        <v>1178</v>
       </c>
       <c r="Y129">
-        <v>1052</v>
+        <v>100</v>
       </c>
       <c r="Z129">
         <v>5</v>
       </c>
       <c r="AA129">
-        <v>984</v>
+        <v>2716</v>
       </c>
       <c r="AB129">
-        <v>965</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="130" spans="1:28">
@@ -12709,10 +12679,10 @@
         <v>10</v>
       </c>
       <c r="M130">
-        <v>1251</v>
+        <v>1256</v>
       </c>
       <c r="N130">
-        <v>1832</v>
+        <v>61</v>
       </c>
       <c r="P130" s="6">
         <v>26</v>
@@ -12721,28 +12691,28 @@
         <v>59</v>
       </c>
       <c r="R130">
-        <v>2139</v>
+        <v>1393</v>
       </c>
       <c r="S130">
-        <v>1806</v>
+        <v>1368</v>
       </c>
       <c r="W130">
         <v>85</v>
       </c>
       <c r="X130">
-        <v>1393</v>
+        <v>1256</v>
       </c>
       <c r="Y130">
-        <v>1368</v>
+        <v>61</v>
       </c>
       <c r="Z130">
         <v>17</v>
       </c>
       <c r="AA130">
-        <v>252</v>
+        <v>2586</v>
       </c>
       <c r="AB130">
-        <v>1240</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="131" spans="1:28">
@@ -12777,10 +12747,10 @@
         <v>31</v>
       </c>
       <c r="M131">
-        <v>1424</v>
+        <v>1429</v>
       </c>
       <c r="N131">
-        <v>1728</v>
+        <v>134</v>
       </c>
       <c r="P131" s="6">
         <v>27</v>
@@ -12789,28 +12759,28 @@
         <v>22</v>
       </c>
       <c r="R131">
-        <v>1807</v>
+        <v>1380</v>
       </c>
       <c r="S131">
-        <v>1711</v>
+        <v>939</v>
       </c>
       <c r="W131">
         <v>34</v>
       </c>
       <c r="X131">
-        <v>1380</v>
+        <v>1429</v>
       </c>
       <c r="Y131">
-        <v>939</v>
+        <v>134</v>
       </c>
       <c r="Z131">
         <v>23</v>
       </c>
       <c r="AA131">
-        <v>274</v>
+        <v>2482</v>
       </c>
       <c r="AB131">
-        <v>1420</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="132" spans="1:28">
@@ -12845,10 +12815,10 @@
         <v>44</v>
       </c>
       <c r="M132">
-        <v>1621</v>
+        <v>1323</v>
       </c>
       <c r="N132">
-        <v>1830</v>
+        <v>280</v>
       </c>
       <c r="P132" s="6">
         <v>28</v>
@@ -12857,28 +12827,28 @@
         <v>44</v>
       </c>
       <c r="R132">
-        <v>1621</v>
+        <v>1787</v>
       </c>
       <c r="S132">
-        <v>1830</v>
+        <v>1009</v>
       </c>
       <c r="W132">
         <v>61</v>
       </c>
       <c r="X132">
-        <v>1795</v>
+        <v>1323</v>
       </c>
       <c r="Y132">
-        <v>962</v>
+        <v>280</v>
       </c>
       <c r="Z132">
         <v>91</v>
       </c>
       <c r="AA132">
-        <v>1187</v>
+        <v>2628</v>
       </c>
       <c r="AB132">
-        <v>706</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="133" spans="1:28">
@@ -12913,10 +12883,10 @@
         <v>90</v>
       </c>
       <c r="M133">
-        <v>1625</v>
+        <v>1286</v>
       </c>
       <c r="N133">
-        <v>1651</v>
+        <v>525</v>
       </c>
       <c r="P133" s="6">
         <v>29</v>
@@ -12925,28 +12895,28 @@
         <v>31</v>
       </c>
       <c r="R133">
-        <v>1424</v>
+        <v>1795</v>
       </c>
       <c r="S133">
-        <v>1728</v>
+        <v>962</v>
       </c>
       <c r="W133">
         <v>76</v>
       </c>
       <c r="X133">
-        <v>1917</v>
+        <v>1286</v>
       </c>
       <c r="Y133">
-        <v>687</v>
+        <v>525</v>
       </c>
       <c r="Z133">
         <v>78</v>
       </c>
       <c r="AA133">
-        <v>378</v>
+        <v>2576</v>
       </c>
       <c r="AB133">
-        <v>1048</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="134" spans="1:28">
@@ -12981,10 +12951,10 @@
         <v>97</v>
       </c>
       <c r="M134">
-        <v>1724</v>
+        <v>1187</v>
       </c>
       <c r="N134">
-        <v>1642</v>
+        <v>706</v>
       </c>
       <c r="P134" s="6">
         <v>30</v>
@@ -12993,28 +12963,28 @@
         <v>90</v>
       </c>
       <c r="R134">
-        <v>1625</v>
+        <v>2097</v>
       </c>
       <c r="S134">
-        <v>1651</v>
+        <v>981</v>
       </c>
       <c r="W134">
         <v>59</v>
       </c>
       <c r="X134">
-        <v>2097</v>
+        <v>1187</v>
       </c>
       <c r="Y134">
-        <v>981</v>
+        <v>706</v>
       </c>
       <c r="Z134">
         <v>46</v>
       </c>
       <c r="AA134">
-        <v>1393</v>
+        <v>2728</v>
       </c>
       <c r="AB134">
-        <v>1368</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="135" spans="1:28">
@@ -13049,10 +13019,10 @@
         <v>22</v>
       </c>
       <c r="M135">
-        <v>1807</v>
+        <v>839</v>
       </c>
       <c r="N135">
-        <v>1711</v>
+        <v>620</v>
       </c>
       <c r="P135" s="6">
         <v>31</v>
@@ -13061,28 +13031,28 @@
         <v>97</v>
       </c>
       <c r="R135">
-        <v>1724</v>
+        <v>1917</v>
       </c>
       <c r="S135">
-        <v>1642</v>
+        <v>687</v>
       </c>
       <c r="W135">
         <v>97</v>
       </c>
       <c r="X135">
-        <v>2482</v>
+        <v>839</v>
       </c>
       <c r="Y135">
-        <v>1183</v>
+        <v>620</v>
       </c>
       <c r="Z135">
         <v>4</v>
       </c>
       <c r="AA135">
-        <v>3888</v>
+        <v>2678</v>
       </c>
       <c r="AB135">
-        <v>666</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="136" spans="1:28">
@@ -13117,10 +13087,10 @@
         <v>59</v>
       </c>
       <c r="M136">
-        <v>2139</v>
+        <v>938</v>
       </c>
       <c r="N136">
-        <v>1806</v>
+        <v>955</v>
       </c>
       <c r="P136" s="6">
         <v>32</v>
@@ -13129,28 +13099,28 @@
         <v>76</v>
       </c>
       <c r="R136">
-        <v>2178</v>
+        <v>1429</v>
       </c>
       <c r="S136">
-        <v>1619</v>
+        <v>134</v>
       </c>
       <c r="W136">
         <v>22</v>
       </c>
       <c r="X136">
-        <v>2421</v>
+        <v>938</v>
       </c>
       <c r="Y136">
-        <v>1007</v>
+        <v>955</v>
       </c>
       <c r="Z136">
         <v>98</v>
       </c>
       <c r="AA136">
-        <v>198</v>
+        <v>2597</v>
       </c>
       <c r="AB136">
-        <v>1810</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="137" spans="1:28">
@@ -13185,10 +13155,10 @@
         <v>61</v>
       </c>
       <c r="M137">
-        <v>2290</v>
+        <v>984</v>
       </c>
       <c r="N137">
-        <v>1810</v>
+        <v>965</v>
       </c>
       <c r="P137" s="6">
         <v>33</v>
@@ -13197,28 +13167,28 @@
         <v>19</v>
       </c>
       <c r="R137">
-        <v>2576</v>
+        <v>1256</v>
       </c>
       <c r="S137">
-        <v>1676</v>
+        <v>61</v>
       </c>
       <c r="W137">
         <v>44</v>
       </c>
       <c r="X137">
-        <v>2599</v>
+        <v>984</v>
       </c>
       <c r="Y137">
-        <v>901</v>
+        <v>965</v>
       </c>
       <c r="Z137">
         <v>33</v>
       </c>
       <c r="AA137">
-        <v>3085</v>
+        <v>2290</v>
       </c>
       <c r="AB137">
-        <v>1528</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="138" spans="1:28">
@@ -13253,10 +13223,10 @@
         <v>85</v>
       </c>
       <c r="M138">
-        <v>2597</v>
+        <v>1115</v>
       </c>
       <c r="N138">
-        <v>1830</v>
+        <v>1052</v>
       </c>
       <c r="P138" s="6">
         <v>34</v>
@@ -13265,19 +13235,19 @@
         <v>56</v>
       </c>
       <c r="R138">
-        <v>2628</v>
+        <v>1178</v>
       </c>
       <c r="S138">
-        <v>1479</v>
+        <v>100</v>
       </c>
       <c r="W138">
         <v>90</v>
       </c>
       <c r="X138">
-        <v>2586</v>
+        <v>1115</v>
       </c>
       <c r="Y138">
-        <v>1286</v>
+        <v>1052</v>
       </c>
       <c r="Z138">
         <v>59</v>
@@ -13321,10 +13291,10 @@
         <v>26</v>
       </c>
       <c r="M139">
-        <v>2678</v>
+        <v>1380</v>
       </c>
       <c r="N139">
-        <v>1825</v>
+        <v>939</v>
       </c>
       <c r="P139" s="6">
         <v>35</v>
@@ -13333,28 +13303,28 @@
         <v>86</v>
       </c>
       <c r="R139">
-        <v>2586</v>
+        <v>1323</v>
       </c>
       <c r="S139">
-        <v>1286</v>
+        <v>280</v>
       </c>
       <c r="W139">
         <v>31</v>
       </c>
       <c r="X139">
-        <v>2716</v>
+        <v>1380</v>
       </c>
       <c r="Y139">
-        <v>1432</v>
+        <v>939</v>
       </c>
       <c r="Z139">
         <v>14</v>
       </c>
       <c r="AA139">
-        <v>1247</v>
+        <v>2178</v>
       </c>
       <c r="AB139">
-        <v>1945</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="140" spans="1:28">
@@ -13389,10 +13359,10 @@
         <v>11</v>
       </c>
       <c r="M140">
-        <v>2728</v>
+        <v>1787</v>
       </c>
       <c r="N140">
-        <v>1698</v>
+        <v>1009</v>
       </c>
       <c r="P140" s="6">
         <v>36</v>
@@ -13401,28 +13371,28 @@
         <v>50</v>
       </c>
       <c r="R140">
-        <v>2482</v>
+        <v>1286</v>
       </c>
       <c r="S140">
-        <v>1183</v>
+        <v>525</v>
       </c>
       <c r="W140">
         <v>16</v>
       </c>
       <c r="X140">
-        <v>2721</v>
+        <v>1787</v>
       </c>
       <c r="Y140">
-        <v>1482</v>
+        <v>1009</v>
       </c>
       <c r="Z140">
         <v>8</v>
       </c>
       <c r="AA140">
-        <v>2716</v>
+        <v>1807</v>
       </c>
       <c r="AB140">
-        <v>1432</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="141" spans="1:28">
@@ -13457,10 +13427,10 @@
         <v>19</v>
       </c>
       <c r="M141">
-        <v>2576</v>
+        <v>1795</v>
       </c>
       <c r="N141">
-        <v>1676</v>
+        <v>962</v>
       </c>
       <c r="P141" s="6">
         <v>37</v>
@@ -13469,28 +13439,28 @@
         <v>60</v>
       </c>
       <c r="R141">
-        <v>2421</v>
+        <v>1187</v>
       </c>
       <c r="S141">
-        <v>1007</v>
+        <v>706</v>
       </c>
       <c r="W141">
         <v>14</v>
       </c>
       <c r="X141">
-        <v>2576</v>
+        <v>1795</v>
       </c>
       <c r="Y141">
-        <v>1676</v>
+        <v>962</v>
       </c>
       <c r="Z141">
         <v>29</v>
       </c>
       <c r="AA141">
-        <v>3520</v>
+        <v>1724</v>
       </c>
       <c r="AB141">
-        <v>1079</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="142" spans="1:28">
@@ -13525,10 +13495,10 @@
         <v>56</v>
       </c>
       <c r="M142">
-        <v>2628</v>
+        <v>1917</v>
       </c>
       <c r="N142">
-        <v>1479</v>
+        <v>687</v>
       </c>
       <c r="P142" s="6">
         <v>38</v>
@@ -13537,28 +13507,28 @@
         <v>57</v>
       </c>
       <c r="R142">
-        <v>2097</v>
+        <v>1115</v>
       </c>
       <c r="S142">
-        <v>981</v>
+        <v>1052</v>
       </c>
       <c r="W142">
         <v>10</v>
       </c>
       <c r="X142">
-        <v>2728</v>
+        <v>1917</v>
       </c>
       <c r="Y142">
-        <v>1698</v>
+        <v>687</v>
       </c>
       <c r="Z142">
         <v>70</v>
       </c>
       <c r="AA142">
-        <v>3911</v>
+        <v>1625</v>
       </c>
       <c r="AB142">
-        <v>1673</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="143" spans="1:28">
@@ -13593,10 +13563,10 @@
         <v>8</v>
       </c>
       <c r="M143">
-        <v>2716</v>
+        <v>2097</v>
       </c>
       <c r="N143">
-        <v>1432</v>
+        <v>981</v>
       </c>
       <c r="P143" s="6">
         <v>39</v>
@@ -13605,28 +13575,28 @@
         <v>92</v>
       </c>
       <c r="R143">
-        <v>1787</v>
+        <v>984</v>
       </c>
       <c r="S143">
-        <v>1009</v>
+        <v>965</v>
       </c>
       <c r="W143">
         <v>20</v>
       </c>
       <c r="X143">
-        <v>2597</v>
+        <v>2097</v>
       </c>
       <c r="Y143">
-        <v>1830</v>
+        <v>981</v>
       </c>
       <c r="Z143">
         <v>28</v>
       </c>
       <c r="AA143">
-        <v>3384</v>
+        <v>1621</v>
       </c>
       <c r="AB143">
-        <v>1498</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="144" spans="1:28">
@@ -13661,10 +13631,10 @@
         <v>6</v>
       </c>
       <c r="M144">
-        <v>2721</v>
+        <v>2421</v>
       </c>
       <c r="N144">
-        <v>1482</v>
+        <v>1007</v>
       </c>
       <c r="P144" s="6">
         <v>40</v>
@@ -13673,28 +13643,28 @@
         <v>23</v>
       </c>
       <c r="R144">
-        <v>274</v>
+        <v>938</v>
       </c>
       <c r="S144">
-        <v>1420</v>
+        <v>955</v>
       </c>
       <c r="W144">
         <v>71</v>
       </c>
       <c r="X144">
-        <v>2290</v>
+        <v>2421</v>
       </c>
       <c r="Y144">
-        <v>1810</v>
+        <v>1007</v>
       </c>
       <c r="Z144">
         <v>2</v>
       </c>
       <c r="AA144">
-        <v>3510</v>
+        <v>1424</v>
       </c>
       <c r="AB144">
-        <v>1671</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="145" spans="1:28">
@@ -13729,10 +13699,10 @@
         <v>54</v>
       </c>
       <c r="M145">
-        <v>2945</v>
+        <v>2574</v>
       </c>
       <c r="N145">
-        <v>1622</v>
+        <v>946</v>
       </c>
       <c r="P145" s="6">
         <v>41</v>
@@ -13741,28 +13711,28 @@
         <v>66</v>
       </c>
       <c r="R145">
-        <v>1917</v>
+        <v>742</v>
       </c>
       <c r="S145">
-        <v>687</v>
+        <v>1025</v>
       </c>
       <c r="W145">
         <v>9</v>
       </c>
       <c r="X145">
-        <v>2139</v>
+        <v>2574</v>
       </c>
       <c r="Y145">
-        <v>1806</v>
+        <v>946</v>
       </c>
       <c r="Z145">
         <v>84</v>
       </c>
       <c r="AA145">
-        <v>3113</v>
+        <v>928</v>
       </c>
       <c r="AB145">
-        <v>885</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="146" spans="1:28">
@@ -13797,10 +13767,10 @@
         <v>82</v>
       </c>
       <c r="M146">
-        <v>2961</v>
+        <v>2482</v>
       </c>
       <c r="N146">
-        <v>1605</v>
+        <v>1183</v>
       </c>
       <c r="P146" s="6">
         <v>42</v>
@@ -13809,28 +13779,28 @@
         <v>68</v>
       </c>
       <c r="R146">
-        <v>2573</v>
+        <v>378</v>
       </c>
       <c r="S146">
-        <v>599</v>
+        <v>1048</v>
       </c>
       <c r="W146">
         <v>89</v>
       </c>
       <c r="X146">
-        <v>1724</v>
+        <v>2482</v>
       </c>
       <c r="Y146">
-        <v>1642</v>
+        <v>1183</v>
       </c>
       <c r="Z146">
         <v>68</v>
       </c>
       <c r="AA146">
-        <v>2573</v>
+        <v>872</v>
       </c>
       <c r="AB146">
-        <v>599</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="147" spans="1:28">
@@ -13865,10 +13835,10 @@
         <v>33</v>
       </c>
       <c r="M147">
-        <v>3085</v>
+        <v>2586</v>
       </c>
       <c r="N147">
-        <v>1528</v>
+        <v>1286</v>
       </c>
       <c r="P147" s="6">
         <v>43</v>
@@ -13877,28 +13847,28 @@
         <v>63</v>
       </c>
       <c r="R147">
-        <v>2588</v>
+        <v>376</v>
       </c>
       <c r="S147">
-        <v>302</v>
+        <v>825</v>
       </c>
       <c r="W147">
         <v>62</v>
       </c>
       <c r="X147">
-        <v>1621</v>
+        <v>2586</v>
       </c>
       <c r="Y147">
-        <v>1830</v>
+        <v>1286</v>
       </c>
       <c r="Z147">
         <v>81</v>
       </c>
       <c r="AA147">
-        <v>3416</v>
+        <v>738</v>
       </c>
       <c r="AB147">
-        <v>143</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="148" spans="1:28">
@@ -13933,10 +13903,10 @@
         <v>45</v>
       </c>
       <c r="M148">
-        <v>3373</v>
+        <v>2628</v>
       </c>
       <c r="N148">
-        <v>1646</v>
+        <v>1479</v>
       </c>
       <c r="P148" s="6">
         <v>44</v>
@@ -13945,28 +13915,28 @@
         <v>39</v>
       </c>
       <c r="R148">
-        <v>2542</v>
+        <v>611</v>
       </c>
       <c r="S148">
-        <v>236</v>
+        <v>673</v>
       </c>
       <c r="W148">
         <v>78</v>
       </c>
       <c r="X148">
-        <v>1625</v>
+        <v>2628</v>
       </c>
       <c r="Y148">
-        <v>1651</v>
+        <v>1479</v>
       </c>
       <c r="Z148">
         <v>86</v>
       </c>
       <c r="AA148">
-        <v>2586</v>
+        <v>742</v>
       </c>
       <c r="AB148">
-        <v>1286</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="149" spans="1:28">
@@ -14001,10 +13971,10 @@
         <v>28</v>
       </c>
       <c r="M149">
-        <v>3384</v>
+        <v>2728</v>
       </c>
       <c r="N149">
-        <v>1498</v>
+        <v>1698</v>
       </c>
       <c r="P149" s="6">
         <v>45</v>
@@ -14013,28 +13983,28 @@
         <v>53</v>
       </c>
       <c r="R149">
-        <v>2519</v>
+        <v>839</v>
       </c>
       <c r="S149">
-        <v>135</v>
+        <v>620</v>
       </c>
       <c r="W149">
         <v>17</v>
       </c>
       <c r="X149">
-        <v>1424</v>
+        <v>2728</v>
       </c>
       <c r="Y149">
-        <v>1728</v>
+        <v>1698</v>
       </c>
       <c r="Z149">
         <v>49</v>
       </c>
       <c r="AA149">
-        <v>3022</v>
+        <v>839</v>
       </c>
       <c r="AB149">
-        <v>474</v>
+        <v>620</v>
       </c>
     </row>
     <row r="150" spans="1:28">
@@ -14069,10 +14039,10 @@
         <v>29</v>
       </c>
       <c r="M150">
-        <v>3520</v>
+        <v>2678</v>
       </c>
       <c r="N150">
-        <v>1079</v>
+        <v>1825</v>
       </c>
       <c r="P150" s="6">
         <v>46</v>
@@ -14081,28 +14051,28 @@
         <v>1</v>
       </c>
       <c r="R150">
-        <v>2848</v>
+        <v>953</v>
       </c>
       <c r="S150">
-        <v>96</v>
+        <v>268</v>
       </c>
       <c r="W150">
         <v>93</v>
       </c>
       <c r="X150">
-        <v>1247</v>
+        <v>2678</v>
       </c>
       <c r="Y150">
-        <v>1945</v>
+        <v>1825</v>
       </c>
       <c r="Z150">
         <v>36</v>
       </c>
       <c r="AA150">
-        <v>3875</v>
+        <v>953</v>
       </c>
       <c r="AB150">
-        <v>598</v>
+        <v>268</v>
       </c>
     </row>
     <row r="151" spans="1:28">
@@ -14137,10 +14107,10 @@
         <v>38</v>
       </c>
       <c r="M151">
-        <v>3479</v>
+        <v>2597</v>
       </c>
       <c r="N151">
-        <v>821</v>
+        <v>1830</v>
       </c>
       <c r="P151" s="6">
         <v>47</v>
@@ -14149,28 +14119,28 @@
         <v>81</v>
       </c>
       <c r="R151">
-        <v>3416</v>
+        <v>776</v>
       </c>
       <c r="S151">
-        <v>143</v>
+        <v>392</v>
       </c>
       <c r="W151">
         <v>21</v>
       </c>
       <c r="X151">
-        <v>1251</v>
+        <v>2597</v>
       </c>
       <c r="Y151">
-        <v>1832</v>
+        <v>1830</v>
       </c>
       <c r="Z151">
         <v>6</v>
       </c>
       <c r="AA151">
-        <v>2721</v>
+        <v>1178</v>
       </c>
       <c r="AB151">
-        <v>1482</v>
+        <v>100</v>
       </c>
     </row>
     <row r="152" spans="1:28">
@@ -14205,10 +14175,10 @@
         <v>84</v>
       </c>
       <c r="M152">
-        <v>3113</v>
+        <v>2573</v>
       </c>
       <c r="N152">
-        <v>885</v>
+        <v>1969</v>
       </c>
       <c r="P152" s="6">
         <v>48</v>
@@ -14217,28 +14187,28 @@
         <v>94</v>
       </c>
       <c r="R152">
-        <v>3640</v>
+        <v>457</v>
       </c>
       <c r="S152">
-        <v>43</v>
+        <v>334</v>
       </c>
       <c r="W152">
         <v>87</v>
       </c>
       <c r="X152">
-        <v>929</v>
+        <v>2573</v>
       </c>
       <c r="Y152">
-        <v>1766</v>
+        <v>1969</v>
       </c>
       <c r="Z152">
         <v>71</v>
       </c>
       <c r="AA152">
-        <v>872</v>
+        <v>1256</v>
       </c>
       <c r="AB152">
-        <v>1559</v>
+        <v>61</v>
       </c>
     </row>
     <row r="153" spans="1:28">
@@ -14273,10 +14243,10 @@
         <v>80</v>
       </c>
       <c r="M153">
-        <v>2599</v>
+        <v>2290</v>
       </c>
       <c r="N153">
-        <v>901</v>
+        <v>1810</v>
       </c>
       <c r="P153" s="6">
         <v>49</v>
@@ -14285,28 +14255,28 @@
         <v>75</v>
       </c>
       <c r="R153">
-        <v>3893</v>
+        <v>327</v>
       </c>
       <c r="S153">
-        <v>102</v>
+        <v>265</v>
       </c>
       <c r="W153">
         <v>52</v>
       </c>
       <c r="X153">
-        <v>890</v>
+        <v>2290</v>
       </c>
       <c r="Y153">
-        <v>1846</v>
+        <v>1810</v>
       </c>
       <c r="Z153">
         <v>44</v>
       </c>
       <c r="AA153">
-        <v>1621</v>
+        <v>1323</v>
       </c>
       <c r="AB153">
-        <v>1830</v>
+        <v>280</v>
       </c>
     </row>
     <row r="154" spans="1:28">
@@ -14341,10 +14311,10 @@
         <v>24</v>
       </c>
       <c r="M154">
-        <v>2574</v>
+        <v>2139</v>
       </c>
       <c r="N154">
-        <v>946</v>
+        <v>1806</v>
       </c>
       <c r="P154" s="6">
         <v>50</v>
@@ -14353,28 +14323,28 @@
         <v>32</v>
       </c>
       <c r="R154">
-        <v>3913</v>
+        <v>178</v>
       </c>
       <c r="S154">
-        <v>192</v>
+        <v>24</v>
       </c>
       <c r="W154">
         <v>15</v>
       </c>
       <c r="X154">
-        <v>1234</v>
+        <v>2139</v>
       </c>
       <c r="Y154">
-        <v>1946</v>
+        <v>1806</v>
       </c>
       <c r="Z154">
         <v>34</v>
       </c>
       <c r="AA154">
-        <v>2573</v>
+        <v>1286</v>
       </c>
       <c r="AB154">
-        <v>1969</v>
+        <v>525</v>
       </c>
     </row>
     <row r="155" spans="1:28">
@@ -14409,10 +14379,10 @@
         <v>60</v>
       </c>
       <c r="M155">
-        <v>2421</v>
+        <v>1724</v>
       </c>
       <c r="N155">
-        <v>1007</v>
+        <v>1642</v>
       </c>
       <c r="P155" s="6">
         <v>51</v>
@@ -14421,28 +14391,28 @@
         <v>12</v>
       </c>
       <c r="R155">
-        <v>3815</v>
+        <v>241</v>
       </c>
       <c r="S155">
-        <v>169</v>
+        <v>341</v>
       </c>
       <c r="W155">
         <v>41</v>
       </c>
       <c r="X155">
-        <v>198</v>
+        <v>1724</v>
       </c>
       <c r="Y155">
-        <v>1810</v>
+        <v>1642</v>
       </c>
       <c r="Z155">
         <v>66</v>
       </c>
       <c r="AA155">
-        <v>1917</v>
+        <v>1187</v>
       </c>
       <c r="AB155">
-        <v>687</v>
+        <v>706</v>
       </c>
     </row>
     <row r="156" spans="1:28">
